--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>413.8554624086507</v>
+        <v>491.4704317134305</v>
       </c>
       <c r="AB2" t="n">
-        <v>566.2553016819325</v>
+        <v>672.4515268155147</v>
       </c>
       <c r="AC2" t="n">
-        <v>512.2126904337154</v>
+        <v>608.2736968878868</v>
       </c>
       <c r="AD2" t="n">
-        <v>413855.4624086507</v>
+        <v>491470.4317134305</v>
       </c>
       <c r="AE2" t="n">
-        <v>566255.3016819324</v>
+        <v>672451.5268155148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.800803208503681e-06</v>
+        <v>2.596153902710633e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>512212.6904337154</v>
+        <v>608273.6968878867</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.0762903074142</v>
+        <v>321.7912457342946</v>
       </c>
       <c r="AB3" t="n">
-        <v>369.5302953236203</v>
+        <v>440.2889788414911</v>
       </c>
       <c r="AC3" t="n">
-        <v>334.2628425769601</v>
+        <v>398.2684166503213</v>
       </c>
       <c r="AD3" t="n">
-        <v>270076.2903074143</v>
+        <v>321791.2457342946</v>
       </c>
       <c r="AE3" t="n">
-        <v>369530.2953236203</v>
+        <v>440288.9788414911</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.488426539861804e-06</v>
+        <v>3.58747598991616e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.21064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>334262.8425769601</v>
+        <v>398268.4166503213</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.2477348497849</v>
+        <v>281.4146633357564</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.9810615695736</v>
+        <v>385.0439575147128</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.8698865707638</v>
+        <v>348.2959026220963</v>
       </c>
       <c r="AD4" t="n">
-        <v>238247.7348497849</v>
+        <v>281414.6633357564</v>
       </c>
       <c r="AE4" t="n">
-        <v>325981.0615695736</v>
+        <v>385043.9575147128</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.748655181645925e-06</v>
+        <v>3.962638362336796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.05902777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>294869.8865707638</v>
+        <v>348295.9026220963</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>218.5751598134524</v>
+        <v>261.6567474448519</v>
       </c>
       <c r="AB5" t="n">
-        <v>299.064176512119</v>
+        <v>358.0103053350467</v>
       </c>
       <c r="AC5" t="n">
-        <v>270.5219112450987</v>
+        <v>323.8423042644884</v>
       </c>
       <c r="AD5" t="n">
-        <v>218575.1598134524</v>
+        <v>261656.7474448519</v>
       </c>
       <c r="AE5" t="n">
-        <v>299064.1765121191</v>
+        <v>358010.3053350467</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.896704534055499e-06</v>
+        <v>4.176075845253804e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.49189814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>270521.9112450987</v>
+        <v>323842.3042644884</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>212.6431679794615</v>
+        <v>255.7247556108578</v>
       </c>
       <c r="AB6" t="n">
-        <v>290.947763583847</v>
+        <v>349.8938924066007</v>
       </c>
       <c r="AC6" t="n">
-        <v>263.1801173752413</v>
+        <v>316.5005103945815</v>
       </c>
       <c r="AD6" t="n">
-        <v>212643.1679794615</v>
+        <v>255724.7556108578</v>
       </c>
       <c r="AE6" t="n">
-        <v>290947.763583847</v>
+        <v>349893.8924066008</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.984410251871742e-06</v>
+        <v>4.302518057552988e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.18518518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>263180.1173752412</v>
+        <v>316500.5103945815</v>
       </c>
     </row>
     <row r="7">
@@ -7257,28 +7257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>199.8371583826319</v>
+        <v>251.4666834463889</v>
       </c>
       <c r="AB7" t="n">
-        <v>273.4260162922031</v>
+        <v>344.0678102182915</v>
       </c>
       <c r="AC7" t="n">
-        <v>247.3306210531795</v>
+        <v>311.2304613133649</v>
       </c>
       <c r="AD7" t="n">
-        <v>199837.1583826319</v>
+        <v>251466.6834463889</v>
       </c>
       <c r="AE7" t="n">
-        <v>273426.0162922032</v>
+        <v>344067.8102182915</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.045699217555308e-06</v>
+        <v>4.390876178363257e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.976851851851851</v>
       </c>
       <c r="AH7" t="n">
-        <v>247330.6210531795</v>
+        <v>311230.4613133649</v>
       </c>
     </row>
     <row r="8">
@@ -7363,28 +7363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>197.5037761851054</v>
+        <v>240.6706151625222</v>
       </c>
       <c r="AB8" t="n">
-        <v>270.2333798279917</v>
+        <v>329.2961533033947</v>
       </c>
       <c r="AC8" t="n">
-        <v>244.442685332218</v>
+        <v>297.8685906022704</v>
       </c>
       <c r="AD8" t="n">
-        <v>197503.7761851054</v>
+        <v>240670.6151625222</v>
       </c>
       <c r="AE8" t="n">
-        <v>270233.3798279917</v>
+        <v>329296.1533033947</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.08036135753059e-06</v>
+        <v>4.44084735208629e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.866898148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>244442.685332218</v>
+        <v>297868.5906022704</v>
       </c>
     </row>
     <row r="9">
@@ -7469,28 +7469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>195.2004157943906</v>
+        <v>238.3672547718075</v>
       </c>
       <c r="AB9" t="n">
-        <v>267.0818205243287</v>
+        <v>326.1445939997316</v>
       </c>
       <c r="AC9" t="n">
-        <v>241.5919064252543</v>
+        <v>295.0178116953068</v>
       </c>
       <c r="AD9" t="n">
-        <v>195200.4157943906</v>
+        <v>238367.2547718075</v>
       </c>
       <c r="AE9" t="n">
-        <v>267081.8205243287</v>
+        <v>326144.5939997316</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.115128534293674e-06</v>
+        <v>4.49096995360848e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>241591.9064252542</v>
+        <v>295017.8116953068</v>
       </c>
     </row>
     <row r="10">
@@ -7575,28 +7575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>193.2313899848931</v>
+        <v>236.39822896231</v>
       </c>
       <c r="AB10" t="n">
-        <v>264.3877125444876</v>
+        <v>323.4504860198906</v>
       </c>
       <c r="AC10" t="n">
-        <v>239.1549203298041</v>
+        <v>292.5808255998566</v>
       </c>
       <c r="AD10" t="n">
-        <v>193231.3899848931</v>
+        <v>236398.22896231</v>
       </c>
       <c r="AE10" t="n">
-        <v>264387.7125444876</v>
+        <v>323450.4860198906</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.142753209486096e-06</v>
+        <v>4.530795464787744e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.670138888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>239154.9203298041</v>
+        <v>292580.8255998566</v>
       </c>
     </row>
     <row r="11">
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>191.9273322513635</v>
+        <v>235.0941712287805</v>
       </c>
       <c r="AB11" t="n">
-        <v>262.6034432225065</v>
+        <v>321.6662166979095</v>
       </c>
       <c r="AC11" t="n">
-        <v>237.5409391676746</v>
+        <v>290.9668444377271</v>
       </c>
       <c r="AD11" t="n">
-        <v>191927.3322513636</v>
+        <v>235094.1712287804</v>
       </c>
       <c r="AE11" t="n">
-        <v>262603.4432225066</v>
+        <v>321666.2166979095</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.156302955112797e-06</v>
+        <v>4.550329650879475e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.62962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>237540.9391676746</v>
+        <v>290966.8444377271</v>
       </c>
     </row>
     <row r="12">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>190.310514369842</v>
+        <v>233.4773533472589</v>
       </c>
       <c r="AB12" t="n">
-        <v>260.391241668039</v>
+        <v>319.4540151434419</v>
       </c>
       <c r="AC12" t="n">
-        <v>235.5398670247204</v>
+        <v>288.9657722947729</v>
       </c>
       <c r="AD12" t="n">
-        <v>190310.514369842</v>
+        <v>233477.3533472589</v>
       </c>
       <c r="AE12" t="n">
-        <v>260391.241668039</v>
+        <v>319454.015143442</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.182142004912553e-06</v>
+        <v>4.587580889473008e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.548611111111112</v>
       </c>
       <c r="AH12" t="n">
-        <v>235539.8670247204</v>
+        <v>288965.7722947729</v>
       </c>
     </row>
     <row r="13">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>188.9786375572324</v>
+        <v>232.1454765346493</v>
       </c>
       <c r="AB13" t="n">
-        <v>258.5689090547695</v>
+        <v>317.6316825301725</v>
       </c>
       <c r="AC13" t="n">
-        <v>233.8914552784008</v>
+        <v>287.3173605484533</v>
       </c>
       <c r="AD13" t="n">
-        <v>188978.6375572324</v>
+        <v>232145.4765346493</v>
       </c>
       <c r="AE13" t="n">
-        <v>258568.9090547695</v>
+        <v>317631.6825301725</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.198055078264841e-06</v>
+        <v>4.610522201045855e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.502314814814817</v>
       </c>
       <c r="AH13" t="n">
-        <v>233891.4552784008</v>
+        <v>287317.3605484533</v>
       </c>
     </row>
     <row r="14">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>187.8991720284973</v>
+        <v>230.895418805322</v>
       </c>
       <c r="AB14" t="n">
-        <v>257.0919366956968</v>
+        <v>315.9212983962529</v>
       </c>
       <c r="AC14" t="n">
-        <v>232.5554430883338</v>
+        <v>285.7702130757353</v>
       </c>
       <c r="AD14" t="n">
-        <v>187899.1720284973</v>
+        <v>230895.418805322</v>
       </c>
       <c r="AE14" t="n">
-        <v>257091.9366956968</v>
+        <v>315921.2983962529</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.210186827256189e-06</v>
+        <v>4.628012111848915e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.467592592592593</v>
       </c>
       <c r="AH14" t="n">
-        <v>232555.4430883338</v>
+        <v>285770.2130757353</v>
       </c>
     </row>
     <row r="15">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>186.8316211565739</v>
+        <v>229.8278679333986</v>
       </c>
       <c r="AB15" t="n">
-        <v>255.6312664957114</v>
+        <v>314.4606281962675</v>
       </c>
       <c r="AC15" t="n">
-        <v>231.2341772021711</v>
+        <v>284.4489471895726</v>
       </c>
       <c r="AD15" t="n">
-        <v>186831.6211565739</v>
+        <v>229827.8679333986</v>
       </c>
       <c r="AE15" t="n">
-        <v>255631.2664957114</v>
+        <v>314460.6281962675</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.220900579612185e-06</v>
+        <v>4.643457747363307e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.438657407407407</v>
       </c>
       <c r="AH15" t="n">
-        <v>231234.1772021711</v>
+        <v>284448.9471895726</v>
       </c>
     </row>
     <row r="16">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>186.6320840203685</v>
+        <v>229.6283307971932</v>
       </c>
       <c r="AB16" t="n">
-        <v>255.358250982998</v>
+        <v>314.1876126835543</v>
       </c>
       <c r="AC16" t="n">
-        <v>230.9872179068113</v>
+        <v>284.2019878942128</v>
       </c>
       <c r="AD16" t="n">
-        <v>186632.0840203685</v>
+        <v>229628.3307971932</v>
       </c>
       <c r="AE16" t="n">
-        <v>255358.2509829981</v>
+        <v>314187.6126835543</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.219745174946343e-06</v>
+        <v>4.641792041572539e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.438657407407407</v>
       </c>
       <c r="AH16" t="n">
-        <v>230987.2179068113</v>
+        <v>284201.9878942128</v>
       </c>
     </row>
     <row r="17">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>185.2675085186006</v>
+        <v>228.2637552954253</v>
       </c>
       <c r="AB17" t="n">
-        <v>253.4911785806578</v>
+        <v>312.3205402812139</v>
       </c>
       <c r="AC17" t="n">
-        <v>229.2983362740972</v>
+        <v>282.5131062614987</v>
       </c>
       <c r="AD17" t="n">
-        <v>185267.5085186006</v>
+        <v>228263.7552954252</v>
       </c>
       <c r="AE17" t="n">
-        <v>253491.1785806578</v>
+        <v>312320.5402812139</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.236761134570572e-06</v>
+        <v>4.666323345036572e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.392361111111112</v>
       </c>
       <c r="AH17" t="n">
-        <v>229298.3362740972</v>
+        <v>282513.1062614987</v>
       </c>
     </row>
     <row r="18">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>184.8359200491291</v>
+        <v>227.8321668259538</v>
       </c>
       <c r="AB18" t="n">
-        <v>252.9006601963877</v>
+        <v>311.7300218969439</v>
       </c>
       <c r="AC18" t="n">
-        <v>228.764176135624</v>
+        <v>281.9789461230254</v>
       </c>
       <c r="AD18" t="n">
-        <v>184835.9200491291</v>
+        <v>227832.1668259538</v>
       </c>
       <c r="AE18" t="n">
-        <v>252900.6601963877</v>
+        <v>311730.0218969439</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.235238101147415e-06</v>
+        <v>4.664127641948742e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.392361111111112</v>
       </c>
       <c r="AH18" t="n">
-        <v>228764.176135624</v>
+        <v>281978.9461230254</v>
       </c>
     </row>
     <row r="19">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>183.7384735656365</v>
+        <v>226.7347203424612</v>
       </c>
       <c r="AB19" t="n">
-        <v>251.3990855017521</v>
+        <v>310.2284472023082</v>
       </c>
       <c r="AC19" t="n">
-        <v>227.4059096223706</v>
+        <v>280.620679609772</v>
       </c>
       <c r="AD19" t="n">
-        <v>183738.4735656365</v>
+        <v>226734.7203424612</v>
       </c>
       <c r="AE19" t="n">
-        <v>251399.0855017521</v>
+        <v>310228.4472023082</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.248735328380215e-06</v>
+        <v>4.683586114140892e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH19" t="n">
-        <v>227405.9096223706</v>
+        <v>280620.6796097721</v>
       </c>
     </row>
     <row r="20">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>183.1351525743838</v>
+        <v>226.1313993512085</v>
       </c>
       <c r="AB20" t="n">
-        <v>250.573595104877</v>
+        <v>309.4029568054331</v>
       </c>
       <c r="AC20" t="n">
-        <v>226.6592028703899</v>
+        <v>279.8739728577913</v>
       </c>
       <c r="AD20" t="n">
-        <v>183135.1525743838</v>
+        <v>226131.3993512085</v>
       </c>
       <c r="AE20" t="n">
-        <v>250573.595104877</v>
+        <v>309402.9568054331</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.249785696258253e-06</v>
+        <v>4.685100392132499e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH20" t="n">
-        <v>226659.2028703899</v>
+        <v>279873.9728577913</v>
       </c>
     </row>
     <row r="21">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>181.9753105853108</v>
+        <v>224.9715573621354</v>
       </c>
       <c r="AB21" t="n">
-        <v>248.9866481268107</v>
+        <v>307.8160098273669</v>
       </c>
       <c r="AC21" t="n">
-        <v>225.2237118846157</v>
+        <v>278.4384818720171</v>
       </c>
       <c r="AD21" t="n">
-        <v>181975.3105853107</v>
+        <v>224971.5573621354</v>
       </c>
       <c r="AE21" t="n">
-        <v>248986.6481268107</v>
+        <v>307816.0098273669</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.260026783069132e-06</v>
+        <v>4.699864602550667e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>225223.7118846157</v>
+        <v>278438.4818720171</v>
       </c>
     </row>
     <row r="22">
@@ -8847,28 +8847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>181.8327051989135</v>
+        <v>224.8289519757382</v>
       </c>
       <c r="AB22" t="n">
-        <v>248.7915291458365</v>
+        <v>307.6208908463927</v>
       </c>
       <c r="AC22" t="n">
-        <v>225.0472147853344</v>
+        <v>278.2619847727358</v>
       </c>
       <c r="AD22" t="n">
-        <v>181832.7051989136</v>
+        <v>224828.9519757382</v>
       </c>
       <c r="AE22" t="n">
-        <v>248791.5291458365</v>
+        <v>307620.8908463927</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.262495147582524e-06</v>
+        <v>4.703423155830944e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH22" t="n">
-        <v>225047.2147853344</v>
+        <v>278261.9847727359</v>
       </c>
     </row>
     <row r="23">
@@ -8953,28 +8953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>181.0819559128815</v>
+        <v>224.0782026897062</v>
       </c>
       <c r="AB23" t="n">
-        <v>247.764320851967</v>
+        <v>306.5936825525231</v>
       </c>
       <c r="AC23" t="n">
-        <v>224.1180418093356</v>
+        <v>277.3328117967371</v>
       </c>
       <c r="AD23" t="n">
-        <v>181081.9559128815</v>
+        <v>224078.2026897062</v>
       </c>
       <c r="AE23" t="n">
-        <v>247764.320851967</v>
+        <v>306593.6825525232</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.265908843186149e-06</v>
+        <v>4.708344559303667e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH23" t="n">
-        <v>224118.0418093356</v>
+        <v>277332.8117967371</v>
       </c>
     </row>
     <row r="24">
@@ -9059,28 +9059,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>180.1934549542148</v>
+        <v>223.1897017310395</v>
       </c>
       <c r="AB24" t="n">
-        <v>246.548634642424</v>
+        <v>305.3779963429802</v>
       </c>
       <c r="AC24" t="n">
-        <v>223.0183789854047</v>
+        <v>276.2331489728062</v>
       </c>
       <c r="AD24" t="n">
-        <v>180193.4549542148</v>
+        <v>223189.7017310395</v>
       </c>
       <c r="AE24" t="n">
-        <v>246548.634642424</v>
+        <v>305377.9963429802</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.262915294733739e-06</v>
+        <v>4.704028867027587e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH24" t="n">
-        <v>223018.3789854047</v>
+        <v>276233.1489728062</v>
       </c>
     </row>
     <row r="25">
@@ -9165,28 +9165,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>179.5435787313623</v>
+        <v>222.539825508187</v>
       </c>
       <c r="AB25" t="n">
-        <v>245.6594453238022</v>
+        <v>304.4888070243584</v>
       </c>
       <c r="AC25" t="n">
-        <v>222.2140526473668</v>
+        <v>275.4288226347683</v>
       </c>
       <c r="AD25" t="n">
-        <v>179543.5787313623</v>
+        <v>222539.825508187</v>
       </c>
       <c r="AE25" t="n">
-        <v>245659.4453238022</v>
+        <v>304488.8070243584</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.276675113936047e-06</v>
+        <v>4.723865908717639e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH25" t="n">
-        <v>222214.0526473668</v>
+        <v>275428.8226347683</v>
       </c>
     </row>
     <row r="26">
@@ -9271,28 +9271,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>179.2683302092273</v>
+        <v>222.264576986052</v>
       </c>
       <c r="AB26" t="n">
-        <v>245.2828381527095</v>
+        <v>304.1121998532657</v>
       </c>
       <c r="AC26" t="n">
-        <v>221.8733883361116</v>
+        <v>275.0881583235131</v>
       </c>
       <c r="AD26" t="n">
-        <v>179268.3302092273</v>
+        <v>222264.576986052</v>
       </c>
       <c r="AE26" t="n">
-        <v>245282.8381527095</v>
+        <v>304112.1998532657</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.276254966784832e-06</v>
+        <v>4.723260197520995e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH26" t="n">
-        <v>221873.3883361116</v>
+        <v>275088.1583235131</v>
       </c>
     </row>
     <row r="27">
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>179.0968248549159</v>
+        <v>222.0930716317405</v>
       </c>
       <c r="AB27" t="n">
-        <v>245.0481769606585</v>
+        <v>303.8775386612147</v>
       </c>
       <c r="AC27" t="n">
-        <v>221.6611228788808</v>
+        <v>274.8758928662822</v>
       </c>
       <c r="AD27" t="n">
-        <v>179096.8248549159</v>
+        <v>222093.0716317405</v>
       </c>
       <c r="AE27" t="n">
-        <v>245048.1769606585</v>
+        <v>303877.5386612146</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.276990224299459e-06</v>
+        <v>4.72432019211512e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH27" t="n">
-        <v>221661.1228788808</v>
+        <v>274875.8928662823</v>
       </c>
     </row>
     <row r="28">
@@ -9483,28 +9483,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>179.2741411914501</v>
+        <v>222.2703879682747</v>
       </c>
       <c r="AB28" t="n">
-        <v>245.2907889949491</v>
+        <v>304.1201506955052</v>
       </c>
       <c r="AC28" t="n">
-        <v>221.8805803611269</v>
+        <v>275.0953503485284</v>
       </c>
       <c r="AD28" t="n">
-        <v>179274.1411914501</v>
+        <v>222270.3879682747</v>
       </c>
       <c r="AE28" t="n">
-        <v>245290.7889949491</v>
+        <v>304120.1506955052</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.276044893209224e-06</v>
+        <v>4.722957341922674e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH28" t="n">
-        <v>221880.5803611269</v>
+        <v>275095.3503485284</v>
       </c>
     </row>
   </sheetData>
@@ -9780,28 +9780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.0241920378946</v>
+        <v>391.2782396233472</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.344194484715</v>
+        <v>535.3641494303075</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.032046800578</v>
+        <v>484.2697463969811</v>
       </c>
       <c r="AD2" t="n">
-        <v>324024.1920378946</v>
+        <v>391278.2396233472</v>
       </c>
       <c r="AE2" t="n">
-        <v>443344.194484715</v>
+        <v>535364.1494303076</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.1234702161353e-06</v>
+        <v>3.10868051369611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>401032.046800578</v>
+        <v>484269.7463969811</v>
       </c>
     </row>
     <row r="3">
@@ -9886,28 +9886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.2667038835628</v>
+        <v>279.6006530129916</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.6928187864719</v>
+        <v>382.5619485626187</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.7544164322203</v>
+        <v>346.0507731208687</v>
       </c>
       <c r="AD3" t="n">
-        <v>229266.7038835628</v>
+        <v>279600.6530129917</v>
       </c>
       <c r="AE3" t="n">
-        <v>313692.8187864719</v>
+        <v>382561.9485626187</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.758202275367965e-06</v>
+        <v>4.037904370457315e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.40046296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>283754.4164322203</v>
+        <v>346050.7731208687</v>
       </c>
     </row>
     <row r="4">
@@ -9992,28 +9992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>204.5247833570173</v>
+        <v>246.6972419866035</v>
       </c>
       <c r="AB4" t="n">
-        <v>279.8398315855724</v>
+        <v>337.5420500001094</v>
       </c>
       <c r="AC4" t="n">
-        <v>253.132310816798</v>
+        <v>305.3275104914421</v>
       </c>
       <c r="AD4" t="n">
-        <v>204524.7833570173</v>
+        <v>246697.2419866035</v>
       </c>
       <c r="AE4" t="n">
-        <v>279839.8315855725</v>
+        <v>337542.0500001094</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.993612188288888e-06</v>
+        <v>4.382535627099127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.50347222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>253132.310816798</v>
+        <v>305327.5104914421</v>
       </c>
     </row>
     <row r="5">
@@ -10098,28 +10098,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.7936816924493</v>
+        <v>238.7955481214433</v>
       </c>
       <c r="AB5" t="n">
-        <v>269.261797215982</v>
+        <v>326.7306038556721</v>
       </c>
       <c r="AC5" t="n">
-        <v>243.5638292010734</v>
+        <v>295.5478935930664</v>
       </c>
       <c r="AD5" t="n">
-        <v>196793.6816924493</v>
+        <v>238795.5481214433</v>
       </c>
       <c r="AE5" t="n">
-        <v>269261.797215982</v>
+        <v>326730.6038556721</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.120960638758918e-06</v>
+        <v>4.568968967871896e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.07523148148148</v>
       </c>
       <c r="AH5" t="n">
-        <v>243563.8292010734</v>
+        <v>295547.8935930664</v>
       </c>
     </row>
     <row r="6">
@@ -10204,28 +10204,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>183.5570920815327</v>
+        <v>225.6442098565473</v>
       </c>
       <c r="AB6" t="n">
-        <v>251.1509113532151</v>
+        <v>308.7363626455544</v>
       </c>
       <c r="AC6" t="n">
-        <v>227.1814208662553</v>
+        <v>279.2709975089604</v>
       </c>
       <c r="AD6" t="n">
-        <v>183557.0920815327</v>
+        <v>225644.2098565473</v>
       </c>
       <c r="AE6" t="n">
-        <v>251150.9113532151</v>
+        <v>308736.3626455544</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.201368363458425e-06</v>
+        <v>4.686682851977569e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.820601851851851</v>
       </c>
       <c r="AH6" t="n">
-        <v>227181.4208662552</v>
+        <v>279270.9975089604</v>
       </c>
     </row>
     <row r="7">
@@ -10310,28 +10310,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>180.4438436695929</v>
+        <v>222.5309614446075</v>
       </c>
       <c r="AB7" t="n">
-        <v>246.8912275291747</v>
+        <v>304.4766788215139</v>
       </c>
       <c r="AC7" t="n">
-        <v>223.3282752878761</v>
+        <v>275.4178519305813</v>
       </c>
       <c r="AD7" t="n">
-        <v>180443.8436695929</v>
+        <v>222530.9614446075</v>
       </c>
       <c r="AE7" t="n">
-        <v>246891.2275291747</v>
+        <v>304476.6788215139</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.252166486832776e-06</v>
+        <v>4.761049393625411e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.670138888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>223328.2752878761</v>
+        <v>275417.8519305813</v>
       </c>
     </row>
     <row r="8">
@@ -10416,28 +10416,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>178.2097594328507</v>
+        <v>220.2968772078653</v>
       </c>
       <c r="AB8" t="n">
-        <v>243.8344549156252</v>
+        <v>301.4199062079644</v>
       </c>
       <c r="AC8" t="n">
-        <v>220.5632367623554</v>
+        <v>272.6528134050607</v>
       </c>
       <c r="AD8" t="n">
-        <v>178209.7594328508</v>
+        <v>220296.8772078653</v>
       </c>
       <c r="AE8" t="n">
-        <v>243834.4549156252</v>
+        <v>301419.9062079644</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.287806667510395e-06</v>
+        <v>4.813225277391167e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.560185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>220563.2367623554</v>
+        <v>272652.8134050607</v>
       </c>
     </row>
     <row r="9">
@@ -10522,28 +10522,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>176.6155014285142</v>
+        <v>218.7026192035288</v>
       </c>
       <c r="AB9" t="n">
-        <v>241.6531207803937</v>
+        <v>299.2385720727329</v>
       </c>
       <c r="AC9" t="n">
-        <v>218.5900860954681</v>
+        <v>270.6796627381734</v>
       </c>
       <c r="AD9" t="n">
-        <v>176615.5014285142</v>
+        <v>218702.6192035288</v>
       </c>
       <c r="AE9" t="n">
-        <v>241653.1207803937</v>
+        <v>299238.572072733</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.309212507734454e-06</v>
+        <v>4.844562622213895e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.502314814814817</v>
       </c>
       <c r="AH9" t="n">
-        <v>218590.0860954681</v>
+        <v>270679.6627381734</v>
       </c>
     </row>
     <row r="10">
@@ -10628,28 +10628,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>174.8257165699313</v>
+        <v>216.7422421443537</v>
       </c>
       <c r="AB10" t="n">
-        <v>239.2042581771467</v>
+        <v>296.5562976946391</v>
       </c>
       <c r="AC10" t="n">
-        <v>216.3749395020739</v>
+        <v>268.2533808621281</v>
       </c>
       <c r="AD10" t="n">
-        <v>174825.7165699313</v>
+        <v>216742.2421443537</v>
       </c>
       <c r="AE10" t="n">
-        <v>239204.2581771467</v>
+        <v>296556.2976946391</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.335779654611521e-06</v>
+        <v>4.883455925813674e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>216374.9395020739</v>
+        <v>268253.3808621281</v>
       </c>
     </row>
     <row r="11">
@@ -10734,28 +10734,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>172.9275309054414</v>
+        <v>214.8440564798638</v>
       </c>
       <c r="AB11" t="n">
-        <v>236.6070768089516</v>
+        <v>293.959116326444</v>
       </c>
       <c r="AC11" t="n">
-        <v>214.0256294784916</v>
+        <v>265.9040708385457</v>
       </c>
       <c r="AD11" t="n">
-        <v>172927.5309054414</v>
+        <v>214844.0564798638</v>
       </c>
       <c r="AE11" t="n">
-        <v>236607.0768089516</v>
+        <v>293959.116326444</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.360825574264543e-06</v>
+        <v>4.920122209984429e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH11" t="n">
-        <v>214025.6294784916</v>
+        <v>265904.0708385457</v>
       </c>
     </row>
     <row r="12">
@@ -10840,28 +10840,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>171.6830447562652</v>
+        <v>213.5995703306876</v>
       </c>
       <c r="AB12" t="n">
-        <v>234.9043159567955</v>
+        <v>292.2563554742879</v>
       </c>
       <c r="AC12" t="n">
-        <v>212.4853777322249</v>
+        <v>264.3638190922791</v>
       </c>
       <c r="AD12" t="n">
-        <v>171683.0447562652</v>
+        <v>213599.5703306876</v>
       </c>
       <c r="AE12" t="n">
-        <v>234904.3159567955</v>
+        <v>292256.3554742879</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.375820528330126e-06</v>
+        <v>4.942074258641972e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.311342592592593</v>
       </c>
       <c r="AH12" t="n">
-        <v>212485.3777322249</v>
+        <v>264363.8190922791</v>
       </c>
     </row>
     <row r="13">
@@ -10946,28 +10946,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>170.6513503027011</v>
+        <v>212.5678758771235</v>
       </c>
       <c r="AB13" t="n">
-        <v>233.4927060902828</v>
+        <v>290.8447456077752</v>
       </c>
       <c r="AC13" t="n">
-        <v>211.2084899301648</v>
+        <v>263.086931290219</v>
       </c>
       <c r="AD13" t="n">
-        <v>170651.3503027011</v>
+        <v>212567.8758771235</v>
       </c>
       <c r="AE13" t="n">
-        <v>233492.7060902828</v>
+        <v>290844.7456077752</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.38581716437385e-06</v>
+        <v>4.956708957747003e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>211208.4899301648</v>
+        <v>263086.931290219</v>
       </c>
     </row>
     <row r="14">
@@ -11052,28 +11052,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>169.727416817288</v>
+        <v>211.6439423917104</v>
       </c>
       <c r="AB14" t="n">
-        <v>232.2285395344726</v>
+        <v>289.5805790519651</v>
       </c>
       <c r="AC14" t="n">
-        <v>210.0649736561718</v>
+        <v>261.943415016226</v>
       </c>
       <c r="AD14" t="n">
-        <v>169727.416817288</v>
+        <v>211643.9423917104</v>
       </c>
       <c r="AE14" t="n">
-        <v>232228.5395344726</v>
+        <v>289580.579051965</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.386143141636144e-06</v>
+        <v>4.957186176196079e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH14" t="n">
-        <v>210064.9736561718</v>
+        <v>261943.415016226</v>
       </c>
     </row>
     <row r="15">
@@ -11158,28 +11158,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>168.8920951054194</v>
+        <v>210.8086206798418</v>
       </c>
       <c r="AB15" t="n">
-        <v>231.0856155165015</v>
+        <v>288.4376550339939</v>
       </c>
       <c r="AC15" t="n">
-        <v>209.0311287023715</v>
+        <v>260.9095700624258</v>
       </c>
       <c r="AD15" t="n">
-        <v>168892.0951054194</v>
+        <v>210808.6206798418</v>
       </c>
       <c r="AE15" t="n">
-        <v>231085.6155165014</v>
+        <v>288437.6550339939</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.399888516196263e-06</v>
+        <v>4.977308887465496e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH15" t="n">
-        <v>209031.1287023716</v>
+        <v>260909.5700624257</v>
       </c>
     </row>
     <row r="16">
@@ -11264,28 +11264,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>167.4361435011484</v>
+        <v>201.1059272297111</v>
       </c>
       <c r="AB16" t="n">
-        <v>229.0935182994874</v>
+        <v>275.1620018029071</v>
       </c>
       <c r="AC16" t="n">
-        <v>207.2291544478227</v>
+        <v>248.9009265432134</v>
       </c>
       <c r="AD16" t="n">
-        <v>167436.1435011484</v>
+        <v>201105.9272297111</v>
       </c>
       <c r="AE16" t="n">
-        <v>229093.5182994874</v>
+        <v>275162.0018029072</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.412655958969496e-06</v>
+        <v>4.99599994338768e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH16" t="n">
-        <v>207229.1544478227</v>
+        <v>248900.9265432134</v>
       </c>
     </row>
     <row r="17">
@@ -11370,28 +11370,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>166.7146921734075</v>
+        <v>200.3844759019703</v>
       </c>
       <c r="AB17" t="n">
-        <v>228.1063967646866</v>
+        <v>274.1748802681063</v>
       </c>
       <c r="AC17" t="n">
-        <v>206.3362424068692</v>
+        <v>248.0080145022599</v>
       </c>
       <c r="AD17" t="n">
-        <v>166714.6921734075</v>
+        <v>200384.4759019703</v>
       </c>
       <c r="AE17" t="n">
-        <v>228106.3967646866</v>
+        <v>274174.8802681064</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.411569368095178e-06</v>
+        <v>4.994409215224089e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH17" t="n">
-        <v>206336.2424068692</v>
+        <v>248008.0145022599</v>
       </c>
     </row>
     <row r="18">
@@ -11476,28 +11476,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>165.4989194477095</v>
+        <v>199.1687031762722</v>
       </c>
       <c r="AB18" t="n">
-        <v>226.4429228852801</v>
+        <v>272.5114063886999</v>
       </c>
       <c r="AC18" t="n">
-        <v>204.8315281398125</v>
+        <v>246.5033002352032</v>
       </c>
       <c r="AD18" t="n">
-        <v>165498.9194477095</v>
+        <v>199168.7031762722</v>
       </c>
       <c r="AE18" t="n">
-        <v>226442.9228852801</v>
+        <v>272511.4063886999</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.425803708548739e-06</v>
+        <v>5.015247754167121e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH18" t="n">
-        <v>204831.5281398125</v>
+        <v>246503.3002352032</v>
       </c>
     </row>
     <row r="19">
@@ -11582,28 +11582,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>165.4370705484033</v>
+        <v>199.106854276966</v>
       </c>
       <c r="AB19" t="n">
-        <v>226.3582984926686</v>
+        <v>272.4267819960883</v>
       </c>
       <c r="AC19" t="n">
-        <v>204.7549801804607</v>
+        <v>246.4267522758514</v>
       </c>
       <c r="AD19" t="n">
-        <v>165437.0705484033</v>
+        <v>199106.854276966</v>
       </c>
       <c r="AE19" t="n">
-        <v>226358.2984926685</v>
+        <v>272426.7819960883</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.424825776761854e-06</v>
+        <v>5.013816098819891e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH19" t="n">
-        <v>204754.9801804607</v>
+        <v>246426.7522758514</v>
       </c>
     </row>
     <row r="20">
@@ -11688,28 +11688,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>165.6568193202451</v>
+        <v>199.3266030488078</v>
       </c>
       <c r="AB20" t="n">
-        <v>226.658968456934</v>
+        <v>272.7274519603538</v>
       </c>
       <c r="AC20" t="n">
-        <v>205.0269546253296</v>
+        <v>246.6987267207203</v>
       </c>
       <c r="AD20" t="n">
-        <v>165656.8193202451</v>
+        <v>199326.6030488078</v>
       </c>
       <c r="AE20" t="n">
-        <v>226658.968456934</v>
+        <v>272727.4519603538</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.424119492693547e-06</v>
+        <v>5.012782125513556e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.184027777777777</v>
       </c>
       <c r="AH20" t="n">
-        <v>205026.9546253296</v>
+        <v>246698.7267207204</v>
       </c>
     </row>
   </sheetData>
@@ -11985,28 +11985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.998835467482</v>
+        <v>218.8353686472318</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.2823476746705</v>
+        <v>299.4202057180995</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.7775060721174</v>
+        <v>270.8439615233505</v>
       </c>
       <c r="AD2" t="n">
-        <v>179998.835467482</v>
+        <v>218835.3686472318</v>
       </c>
       <c r="AE2" t="n">
-        <v>246282.3476746705</v>
+        <v>299420.2057180995</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.149591200454533e-06</v>
+        <v>4.872806350326332e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.1400462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>222777.5060721174</v>
+        <v>270843.9615233505</v>
       </c>
     </row>
     <row r="3">
@@ -12091,28 +12091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.269579652382</v>
+        <v>184.1060233235807</v>
       </c>
       <c r="AB3" t="n">
-        <v>198.7642477218415</v>
+        <v>251.9019832957221</v>
       </c>
       <c r="AC3" t="n">
-        <v>179.7944668866991</v>
+        <v>227.8608115567056</v>
       </c>
       <c r="AD3" t="n">
-        <v>145269.579652382</v>
+        <v>184106.0233235807</v>
       </c>
       <c r="AE3" t="n">
-        <v>198764.2477218415</v>
+        <v>251901.983295722</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.596449644404842e-06</v>
+        <v>5.564151520157823e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>179794.4668866991</v>
+        <v>227860.8115567057</v>
       </c>
     </row>
     <row r="4">
@@ -12197,28 +12197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>139.4011954052599</v>
+        <v>178.0670468758664</v>
       </c>
       <c r="AB4" t="n">
-        <v>190.734865500092</v>
+        <v>243.6391892991256</v>
       </c>
       <c r="AC4" t="n">
-        <v>172.531397634882</v>
+        <v>220.3866070222376</v>
       </c>
       <c r="AD4" t="n">
-        <v>139401.1954052599</v>
+        <v>178067.0468758664</v>
       </c>
       <c r="AE4" t="n">
-        <v>190734.865500092</v>
+        <v>243639.1892991256</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.73982506428579e-06</v>
+        <v>5.785970991959676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.380787037037038</v>
       </c>
       <c r="AH4" t="n">
-        <v>172531.397634882</v>
+        <v>220386.6070222376</v>
       </c>
     </row>
     <row r="5">
@@ -12303,28 +12303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>135.6124577337708</v>
+        <v>166.6817021792808</v>
       </c>
       <c r="AB5" t="n">
-        <v>185.5509474706538</v>
+        <v>228.0612583993066</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.8422254664971</v>
+        <v>206.295411983729</v>
       </c>
       <c r="AD5" t="n">
-        <v>135612.4577337708</v>
+        <v>166681.7021792808</v>
       </c>
       <c r="AE5" t="n">
-        <v>185550.9474706538</v>
+        <v>228061.2583993066</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.818332958047241e-06</v>
+        <v>5.907432394066824e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.189814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>167842.2254664971</v>
+        <v>206295.411983729</v>
       </c>
     </row>
     <row r="6">
@@ -12409,28 +12409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.8571781409486</v>
+        <v>163.9264225864586</v>
       </c>
       <c r="AB6" t="n">
-        <v>181.7810523773996</v>
+        <v>224.2913633060523</v>
       </c>
       <c r="AC6" t="n">
-        <v>164.4321238698609</v>
+        <v>202.8853103870927</v>
       </c>
       <c r="AD6" t="n">
-        <v>132857.1781409486</v>
+        <v>163926.4225864586</v>
       </c>
       <c r="AE6" t="n">
-        <v>181781.0523773996</v>
+        <v>224291.3633060523</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.862527749207161e-06</v>
+        <v>5.975807191083124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH6" t="n">
-        <v>164432.1238698609</v>
+        <v>202885.3103870927</v>
       </c>
     </row>
     <row r="7">
@@ -12515,28 +12515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.8149780334014</v>
+        <v>163.8842224789114</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.7233123285162</v>
+        <v>224.2336232571689</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.3798944502042</v>
+        <v>202.833080967436</v>
       </c>
       <c r="AD7" t="n">
-        <v>132814.9780334014</v>
+        <v>163884.2224789114</v>
       </c>
       <c r="AE7" t="n">
-        <v>181723.3123285162</v>
+        <v>224233.6232571689</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.870166355086654e-06</v>
+        <v>5.98762505723409e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>164379.8944502042</v>
+        <v>202833.080967436</v>
       </c>
     </row>
   </sheetData>
@@ -12812,28 +12812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.4372993317498</v>
+        <v>271.4808410561994</v>
       </c>
       <c r="AB2" t="n">
-        <v>305.716770303507</v>
+        <v>371.4520636225141</v>
       </c>
       <c r="AC2" t="n">
-        <v>276.5395908220128</v>
+        <v>336.0012000066262</v>
       </c>
       <c r="AD2" t="n">
-        <v>223437.2993317498</v>
+        <v>271480.8410561995</v>
       </c>
       <c r="AE2" t="n">
-        <v>305716.770303507</v>
+        <v>371452.0636225141</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.741166402034553e-06</v>
+        <v>4.142708249883631e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.24537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>276539.5908220127</v>
+        <v>336001.2000066262</v>
       </c>
     </row>
     <row r="3">
@@ -12918,28 +12918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.9441444201025</v>
+        <v>215.9662206328043</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.7345405033045</v>
+        <v>295.4945108268849</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.7591738307885</v>
+        <v>267.2929294428048</v>
       </c>
       <c r="AD3" t="n">
-        <v>175944.1444201025</v>
+        <v>215966.2206328043</v>
       </c>
       <c r="AE3" t="n">
-        <v>240734.5405033045</v>
+        <v>295494.5108268849</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.265690541760359e-06</v>
+        <v>4.935418418552122e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.27777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>217759.1738307885</v>
+        <v>267292.9294428048</v>
       </c>
     </row>
     <row r="4">
@@ -13024,28 +13024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.3659506493364</v>
+        <v>199.4732782080588</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.0515244078626</v>
+        <v>272.9281393840922</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.2409929556754</v>
+        <v>246.8802608184039</v>
       </c>
       <c r="AD4" t="n">
-        <v>159365.9506493364</v>
+        <v>199473.2782080589</v>
       </c>
       <c r="AE4" t="n">
-        <v>218051.5244078626</v>
+        <v>272928.1393840922</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.445364998291821e-06</v>
+        <v>5.206959340990754e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.739583333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>197240.9929556753</v>
+        <v>246880.2608184039</v>
       </c>
     </row>
     <row r="5">
@@ -13130,28 +13130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.7663873719292</v>
+        <v>194.7031227300594</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.7581990133066</v>
+        <v>266.4014022146894</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.5482937040361</v>
+        <v>240.9764262841136</v>
       </c>
       <c r="AD5" t="n">
-        <v>154766.3873719292</v>
+        <v>194703.1227300594</v>
       </c>
       <c r="AE5" t="n">
-        <v>211758.1990133066</v>
+        <v>266401.4022146894</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.542219853813946e-06</v>
+        <v>5.353335499955413e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.473379629629632</v>
       </c>
       <c r="AH5" t="n">
-        <v>191548.2937040361</v>
+        <v>240976.4262841136</v>
       </c>
     </row>
     <row r="6">
@@ -13236,28 +13236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.8792508326383</v>
+        <v>191.8159861907685</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.8078914287762</v>
+        <v>262.4510946301589</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.9749979310804</v>
+        <v>237.403130511158</v>
       </c>
       <c r="AD6" t="n">
-        <v>151879.2508326383</v>
+        <v>191815.9861907685</v>
       </c>
       <c r="AE6" t="n">
-        <v>207807.8914287762</v>
+        <v>262451.0946301589</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.596040995086121e-06</v>
+        <v>5.434675066134577e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.33449074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>187974.9979310804</v>
+        <v>237403.130511158</v>
       </c>
     </row>
     <row r="7">
@@ -13342,28 +13342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.0835578140943</v>
+        <v>181.1695093696232</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.9827009035349</v>
+        <v>247.8841153540669</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.5148782208783</v>
+        <v>224.2264032922878</v>
       </c>
       <c r="AD7" t="n">
-        <v>149083.5578140943</v>
+        <v>181169.5093696232</v>
       </c>
       <c r="AE7" t="n">
-        <v>203982.7009035349</v>
+        <v>247884.1153540669</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.645512367397721e-06</v>
+        <v>5.50944085271952e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>184514.8782208783</v>
+        <v>224226.4032922878</v>
       </c>
     </row>
     <row r="8">
@@ -13448,28 +13448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.2959740745093</v>
+        <v>179.3819256300383</v>
       </c>
       <c r="AB8" t="n">
-        <v>201.5368499684072</v>
+        <v>245.4382644189392</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.3024558662251</v>
+        <v>222.0139809376345</v>
       </c>
       <c r="AD8" t="n">
-        <v>147295.9740745093</v>
+        <v>179381.9256300383</v>
       </c>
       <c r="AE8" t="n">
-        <v>201536.8499684072</v>
+        <v>245438.2644189392</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.671610981161168e-06</v>
+        <v>5.548883530284848e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.143518518518519</v>
       </c>
       <c r="AH8" t="n">
-        <v>182302.4558662251</v>
+        <v>222013.9809376345</v>
       </c>
     </row>
     <row r="9">
@@ -13554,28 +13554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>145.2256655372395</v>
+        <v>177.3116170927684</v>
       </c>
       <c r="AB9" t="n">
-        <v>198.7041624921495</v>
+        <v>242.6055769426815</v>
       </c>
       <c r="AC9" t="n">
-        <v>179.7401161069987</v>
+        <v>219.4516411784081</v>
       </c>
       <c r="AD9" t="n">
-        <v>145225.6655372395</v>
+        <v>177311.6170927684</v>
       </c>
       <c r="AE9" t="n">
-        <v>198704.1624921495</v>
+        <v>242605.5769426815</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.694461767434052e-06</v>
+        <v>5.583417785753157e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.085648148148147</v>
       </c>
       <c r="AH9" t="n">
-        <v>179740.1161069987</v>
+        <v>219451.6411784081</v>
       </c>
     </row>
     <row r="10">
@@ -13660,28 +13660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.2955315550836</v>
+        <v>176.3814831106125</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.4315121431492</v>
+        <v>241.3329265936813</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.5889257211306</v>
+        <v>218.30045079254</v>
       </c>
       <c r="AD10" t="n">
-        <v>144295.5315550836</v>
+        <v>176381.4831106125</v>
       </c>
       <c r="AE10" t="n">
-        <v>197431.5121431492</v>
+        <v>241332.9265936813</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.704379240664162e-06</v>
+        <v>5.598406003227981e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH10" t="n">
-        <v>178588.9257211306</v>
+        <v>218300.45079254</v>
       </c>
     </row>
     <row r="11">
@@ -13766,28 +13766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>144.7292038991455</v>
+        <v>176.8151554546744</v>
       </c>
       <c r="AB11" t="n">
-        <v>198.024881776568</v>
+        <v>241.9262962271</v>
       </c>
       <c r="AC11" t="n">
-        <v>179.1256649895356</v>
+        <v>218.837190060945</v>
       </c>
       <c r="AD11" t="n">
-        <v>144729.2038991454</v>
+        <v>176815.1554546744</v>
       </c>
       <c r="AE11" t="n">
-        <v>198024.881776568</v>
+        <v>241926.2962271</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.701363400851497e-06</v>
+        <v>5.593848182709321e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.068287037037036</v>
       </c>
       <c r="AH11" t="n">
-        <v>179125.6649895356</v>
+        <v>218837.190060945</v>
       </c>
     </row>
   </sheetData>
@@ -14063,28 +14063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.5110088267273</v>
+        <v>186.219815666412</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.1993141199411</v>
+        <v>254.794167233119</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.8062567724203</v>
+        <v>230.476969518324</v>
       </c>
       <c r="AD2" t="n">
-        <v>148511.0088267273</v>
+        <v>186219.815666412</v>
       </c>
       <c r="AE2" t="n">
-        <v>203199.3141199411</v>
+        <v>254794.167233119</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.506030338377937e-06</v>
+        <v>5.541238843582892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39351851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>183806.2567724203</v>
+        <v>230476.969518324</v>
       </c>
     </row>
     <row r="3">
@@ -14169,28 +14169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.7719180226671</v>
+        <v>166.3953840077801</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.1914192546131</v>
+        <v>227.6695052455933</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.375957487212</v>
+        <v>205.9410472011769</v>
       </c>
       <c r="AD3" t="n">
-        <v>128771.9180226671</v>
+        <v>166395.3840077801</v>
       </c>
       <c r="AE3" t="n">
-        <v>176191.4192546131</v>
+        <v>227669.5052455933</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.864037818156993e-06</v>
+        <v>6.107065365826486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>159375.957487212</v>
+        <v>205941.0472011769</v>
       </c>
     </row>
     <row r="4">
@@ -14275,28 +14275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.6741020774214</v>
+        <v>153.9094381345366</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.2163625785645</v>
+        <v>210.5856832607746</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.0665904307698</v>
+        <v>190.4876812092891</v>
       </c>
       <c r="AD4" t="n">
-        <v>123674.1020774214</v>
+        <v>153909.4381345366</v>
       </c>
       <c r="AE4" t="n">
-        <v>169216.3625785646</v>
+        <v>210585.6832607746</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.992671177493718e-06</v>
+        <v>6.310368845415594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.126157407407407</v>
       </c>
       <c r="AH4" t="n">
-        <v>153066.5904307698</v>
+        <v>190487.6812092891</v>
       </c>
     </row>
     <row r="5">
@@ -14381,28 +14381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.616527787603</v>
+        <v>153.8518638447182</v>
       </c>
       <c r="AB5" t="n">
-        <v>169.1375868952367</v>
+        <v>210.5069075774467</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.9953329880964</v>
+        <v>190.4164237666157</v>
       </c>
       <c r="AD5" t="n">
-        <v>123616.527787603</v>
+        <v>153851.8638447182</v>
       </c>
       <c r="AE5" t="n">
-        <v>169137.5868952367</v>
+        <v>210506.9075774467</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.998652660184362e-06</v>
+        <v>6.319822506972601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>152995.3329880963</v>
+        <v>190416.4237666157</v>
       </c>
     </row>
   </sheetData>
@@ -14678,28 +14678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>350.2195729633435</v>
+        <v>417.842441982274</v>
       </c>
       <c r="AB2" t="n">
-        <v>479.1858703255585</v>
+        <v>571.7104630276885</v>
       </c>
       <c r="AC2" t="n">
-        <v>433.4530434032793</v>
+        <v>517.1472188369996</v>
       </c>
       <c r="AD2" t="n">
-        <v>350219.5729633435</v>
+        <v>417842.441982274</v>
       </c>
       <c r="AE2" t="n">
-        <v>479185.8703255585</v>
+        <v>571710.4630276886</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03181688636671e-06</v>
+        <v>2.96215798020675e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.33564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>433453.0434032793</v>
+        <v>517147.2188369996</v>
       </c>
     </row>
     <row r="3">
@@ -14784,28 +14784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.5770367984611</v>
+        <v>286.422132713106</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.3268946728717</v>
+        <v>391.8953980307601</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.5644682340264</v>
+        <v>354.4934512713492</v>
       </c>
       <c r="AD3" t="n">
-        <v>235577.036798461</v>
+        <v>286422.132713106</v>
       </c>
       <c r="AE3" t="n">
-        <v>322326.8946728717</v>
+        <v>391895.3980307601</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.701874420109024e-06</v>
+        <v>3.939025671429502e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.53356481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>291564.4682340265</v>
+        <v>354493.4512713492</v>
       </c>
     </row>
     <row r="4">
@@ -14890,28 +14890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.8637364434746</v>
+        <v>260.6234915035475</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.1448227364463</v>
+        <v>356.596558972119</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.7401238648543</v>
+        <v>322.5634838702331</v>
       </c>
       <c r="AD4" t="n">
-        <v>209863.7364434745</v>
+        <v>260623.4915035475</v>
       </c>
       <c r="AE4" t="n">
-        <v>287144.8227364463</v>
+        <v>356596.558972119</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.940499971699699e-06</v>
+        <v>4.286914591276769e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.59606481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>259740.1238648543</v>
+        <v>322563.4838702331</v>
       </c>
     </row>
     <row r="5">
@@ -14996,28 +14996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.9990934043454</v>
+        <v>244.2847553205259</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.3840711667519</v>
+        <v>334.2411793121835</v>
       </c>
       <c r="AC5" t="n">
-        <v>250.0063633221583</v>
+        <v>302.3416702691698</v>
       </c>
       <c r="AD5" t="n">
-        <v>201999.0934043454</v>
+        <v>244284.7553205259</v>
       </c>
       <c r="AE5" t="n">
-        <v>276384.0711667519</v>
+        <v>334241.1793121835</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.065358422543284e-06</v>
+        <v>4.468944014815986e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.16203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>250006.3633221583</v>
+        <v>302341.6702691697</v>
       </c>
     </row>
     <row r="6">
@@ -15102,28 +15102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>188.6549059153105</v>
+        <v>239.3293201208086</v>
       </c>
       <c r="AB6" t="n">
-        <v>258.1259651402601</v>
+        <v>327.460934253562</v>
       </c>
       <c r="AC6" t="n">
-        <v>233.4907853094164</v>
+        <v>296.2085222828071</v>
       </c>
       <c r="AD6" t="n">
-        <v>188654.9059153105</v>
+        <v>239329.3201208086</v>
       </c>
       <c r="AE6" t="n">
-        <v>258125.9651402601</v>
+        <v>327460.934253562</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.143859337303935e-06</v>
+        <v>4.583389422112311e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.913194444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>233490.7853094164</v>
+        <v>296208.522282807</v>
       </c>
     </row>
     <row r="7">
@@ -15208,28 +15208,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.5568178066915</v>
+        <v>227.9277310688926</v>
       </c>
       <c r="AB7" t="n">
-        <v>253.8870243120486</v>
+        <v>311.8607771101295</v>
       </c>
       <c r="AC7" t="n">
-        <v>229.6564030444572</v>
+        <v>282.0972222421809</v>
       </c>
       <c r="AD7" t="n">
-        <v>185556.8178066915</v>
+        <v>227927.7310688926</v>
       </c>
       <c r="AE7" t="n">
-        <v>253887.0243120486</v>
+        <v>311860.7771101295</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193447363706238e-06</v>
+        <v>4.655683125898262e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.756944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>229656.4030444572</v>
+        <v>282097.2222421808</v>
       </c>
     </row>
     <row r="8">
@@ -15314,28 +15314,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>183.3336264777816</v>
+        <v>225.7045397399826</v>
       </c>
       <c r="AB8" t="n">
-        <v>250.8451558555562</v>
+        <v>308.8189086536372</v>
       </c>
       <c r="AC8" t="n">
-        <v>226.9048462441623</v>
+        <v>279.3456654418859</v>
       </c>
       <c r="AD8" t="n">
-        <v>183333.6264777816</v>
+        <v>225704.5397399826</v>
       </c>
       <c r="AE8" t="n">
-        <v>250845.1558555563</v>
+        <v>308818.9086536372</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.227152146038315e-06</v>
+        <v>4.704820865930841e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.652777777777777</v>
       </c>
       <c r="AH8" t="n">
-        <v>226904.8462441623</v>
+        <v>279345.6654418859</v>
       </c>
     </row>
     <row r="9">
@@ -15420,28 +15420,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>180.9194111401972</v>
+        <v>223.2903244023983</v>
       </c>
       <c r="AB9" t="n">
-        <v>247.5419199230113</v>
+        <v>305.5156727210922</v>
       </c>
       <c r="AC9" t="n">
-        <v>223.9168665128977</v>
+        <v>276.3576857106213</v>
       </c>
       <c r="AD9" t="n">
-        <v>180919.4111401972</v>
+        <v>223290.3244023983</v>
       </c>
       <c r="AE9" t="n">
-        <v>247541.9199230113</v>
+        <v>305515.6727210922</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.266671810945254e-06</v>
+        <v>4.762436043540925e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.537037037037038</v>
       </c>
       <c r="AH9" t="n">
-        <v>223916.8665128977</v>
+        <v>276357.6857106213</v>
       </c>
     </row>
     <row r="10">
@@ -15526,28 +15526,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>179.0646378907069</v>
+        <v>221.2649589523158</v>
       </c>
       <c r="AB10" t="n">
-        <v>245.0041373362392</v>
+        <v>302.7444783594732</v>
       </c>
       <c r="AC10" t="n">
-        <v>221.621286334406</v>
+        <v>273.8509702494785</v>
       </c>
       <c r="AD10" t="n">
-        <v>179064.6378907069</v>
+        <v>221264.9589523158</v>
       </c>
       <c r="AE10" t="n">
-        <v>245004.1373362392</v>
+        <v>302744.4783594732</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.291923476941649e-06</v>
+        <v>4.799250101169167e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.467592592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>221621.286334406</v>
+        <v>273850.9702494785</v>
       </c>
     </row>
     <row r="11">
@@ -15632,28 +15632,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>178.0400657359366</v>
+        <v>220.2403867975454</v>
       </c>
       <c r="AB11" t="n">
-        <v>243.6022725131498</v>
+        <v>301.3426135363838</v>
       </c>
       <c r="AC11" t="n">
-        <v>220.3532135225022</v>
+        <v>272.5828974375747</v>
       </c>
       <c r="AD11" t="n">
-        <v>178040.0657359366</v>
+        <v>220240.3867975454</v>
       </c>
       <c r="AE11" t="n">
-        <v>243602.2725131498</v>
+        <v>301342.6135363838</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.305868426820257e-06</v>
+        <v>4.819580252396704e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>220353.2135225022</v>
+        <v>272582.8974375747</v>
       </c>
     </row>
     <row r="12">
@@ -15738,28 +15738,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>176.9068826703103</v>
+        <v>219.1072037319192</v>
       </c>
       <c r="AB12" t="n">
-        <v>242.0518014502521</v>
+        <v>299.7921424734861</v>
       </c>
       <c r="AC12" t="n">
-        <v>218.9507172417472</v>
+        <v>271.1804011568197</v>
       </c>
       <c r="AD12" t="n">
-        <v>176906.8826703103</v>
+        <v>219107.2037319192</v>
       </c>
       <c r="AE12" t="n">
-        <v>242051.8014502521</v>
+        <v>299792.1424734861</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.317228984443368e-06</v>
+        <v>4.836142653589794e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.392361111111112</v>
       </c>
       <c r="AH12" t="n">
-        <v>218950.7172417472</v>
+        <v>271180.4011568197</v>
       </c>
     </row>
     <row r="13">
@@ -15844,28 +15844,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>175.7596541329345</v>
+        <v>217.9599751945433</v>
       </c>
       <c r="AB13" t="n">
-        <v>240.4821127532643</v>
+        <v>298.2224537764982</v>
       </c>
       <c r="AC13" t="n">
-        <v>217.5308374309274</v>
+        <v>269.760521346</v>
       </c>
       <c r="AD13" t="n">
-        <v>175759.6541329345</v>
+        <v>217959.9751945433</v>
       </c>
       <c r="AE13" t="n">
-        <v>240482.1127532643</v>
+        <v>298222.4537764983</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.32896643260374e-06</v>
+        <v>4.853254518329574e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH13" t="n">
-        <v>217530.8374309274</v>
+        <v>269760.521346</v>
       </c>
     </row>
     <row r="14">
@@ -15950,28 +15950,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>174.4940094275113</v>
+        <v>216.6943304891202</v>
       </c>
       <c r="AB14" t="n">
-        <v>238.7504018310015</v>
+        <v>296.4907428542356</v>
       </c>
       <c r="AC14" t="n">
-        <v>215.9643985686133</v>
+        <v>268.1940824836859</v>
       </c>
       <c r="AD14" t="n">
-        <v>174494.0094275113</v>
+        <v>216694.3304891202</v>
       </c>
       <c r="AE14" t="n">
-        <v>238750.4018310015</v>
+        <v>296490.7428542356</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.34355748054622e-06</v>
+        <v>4.874526607065721e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH14" t="n">
-        <v>215964.3985686133</v>
+        <v>268194.0824836859</v>
       </c>
     </row>
     <row r="15">
@@ -16056,28 +16056,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>173.1688449209195</v>
+        <v>215.3691659825284</v>
       </c>
       <c r="AB15" t="n">
-        <v>236.9372532909515</v>
+        <v>294.6775943141855</v>
       </c>
       <c r="AC15" t="n">
-        <v>214.3242943804551</v>
+        <v>266.5539782955277</v>
       </c>
       <c r="AD15" t="n">
-        <v>173168.8449209195</v>
+        <v>215369.1659825284</v>
       </c>
       <c r="AE15" t="n">
-        <v>236937.2532909515</v>
+        <v>294677.5943141854</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.356102551286434e-06</v>
+        <v>4.892815893691266e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH15" t="n">
-        <v>214324.2943804551</v>
+        <v>266553.9782955277</v>
       </c>
     </row>
     <row r="16">
@@ -16162,28 +16162,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>172.6429880777203</v>
+        <v>214.8433091393293</v>
       </c>
       <c r="AB16" t="n">
-        <v>236.2177527589202</v>
+        <v>293.9580937821542</v>
       </c>
       <c r="AC16" t="n">
-        <v>213.6734619693754</v>
+        <v>265.9031458844479</v>
       </c>
       <c r="AD16" t="n">
-        <v>172642.9880777203</v>
+        <v>214843.3091393292</v>
       </c>
       <c r="AE16" t="n">
-        <v>236217.7527589202</v>
+        <v>293958.0937821542</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.355725660749174e-06</v>
+        <v>4.892266430144576e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH16" t="n">
-        <v>213673.4619693753</v>
+        <v>265903.1458844479</v>
       </c>
     </row>
     <row r="17">
@@ -16268,28 +16268,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>171.5408519970022</v>
+        <v>213.7411730586111</v>
       </c>
       <c r="AB17" t="n">
-        <v>234.7097615504701</v>
+        <v>292.4501025737041</v>
       </c>
       <c r="AC17" t="n">
-        <v>212.3093913253803</v>
+        <v>264.5390752404529</v>
       </c>
       <c r="AD17" t="n">
-        <v>171540.8519970022</v>
+        <v>213741.1730586111</v>
       </c>
       <c r="AE17" t="n">
-        <v>234709.7615504701</v>
+        <v>292450.1025737041</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.368916829553262e-06</v>
+        <v>4.911497654278733e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH17" t="n">
-        <v>212309.3913253803</v>
+        <v>264539.0752404529</v>
       </c>
     </row>
     <row r="18">
@@ -16374,28 +16374,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>170.5460980293464</v>
+        <v>212.7464190909552</v>
       </c>
       <c r="AB18" t="n">
-        <v>233.3486952864762</v>
+        <v>291.0890363097103</v>
       </c>
       <c r="AC18" t="n">
-        <v>211.0782233153531</v>
+        <v>263.3079072304256</v>
       </c>
       <c r="AD18" t="n">
-        <v>170546.0980293464</v>
+        <v>212746.4190909552</v>
       </c>
       <c r="AE18" t="n">
-        <v>233348.6952864763</v>
+        <v>291089.0363097103</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.368970671058584e-06</v>
+        <v>4.911576149071117e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH18" t="n">
-        <v>211078.2233153531</v>
+        <v>263307.9072304256</v>
       </c>
     </row>
     <row r="19">
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>169.7164246544124</v>
+        <v>203.6132447727243</v>
       </c>
       <c r="AB19" t="n">
-        <v>232.2134995722862</v>
+        <v>278.5926242802993</v>
       </c>
       <c r="AC19" t="n">
-        <v>210.0513690868678</v>
+        <v>252.0041352262732</v>
       </c>
       <c r="AD19" t="n">
-        <v>169716.4246544124</v>
+        <v>203613.2447727243</v>
       </c>
       <c r="AE19" t="n">
-        <v>232213.4995722862</v>
+        <v>278592.6242802993</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.38097732674557e-06</v>
+        <v>4.929080487772818e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH19" t="n">
-        <v>210051.3690868678</v>
+        <v>252004.1352262732</v>
       </c>
     </row>
     <row r="20">
@@ -16586,28 +16586,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>169.3562681888891</v>
+        <v>203.253088307201</v>
       </c>
       <c r="AB20" t="n">
-        <v>231.7207176071756</v>
+        <v>278.0998423151887</v>
       </c>
       <c r="AC20" t="n">
-        <v>209.6056175408834</v>
+        <v>251.5583836802888</v>
       </c>
       <c r="AD20" t="n">
-        <v>169356.2681888891</v>
+        <v>203253.088307201</v>
       </c>
       <c r="AE20" t="n">
-        <v>231720.7176071756</v>
+        <v>278099.8423151887</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.38232336437864e-06</v>
+        <v>4.931042857582426e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH20" t="n">
-        <v>209605.6175408834</v>
+        <v>251558.3836802889</v>
       </c>
     </row>
     <row r="21">
@@ -16692,28 +16692,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>168.340136193412</v>
+        <v>202.2369563117239</v>
       </c>
       <c r="AB21" t="n">
-        <v>230.3304009823847</v>
+        <v>276.7095256903978</v>
       </c>
       <c r="AC21" t="n">
-        <v>208.3479907834405</v>
+        <v>250.3007569228459</v>
       </c>
       <c r="AD21" t="n">
-        <v>168340.136193412</v>
+        <v>202236.9563117239</v>
       </c>
       <c r="AE21" t="n">
-        <v>230330.4009823847</v>
+        <v>276709.5256903978</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.384530866096875e-06</v>
+        <v>4.934261144070183e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH21" t="n">
-        <v>208347.9907834404</v>
+        <v>250300.7569228459</v>
       </c>
     </row>
     <row r="22">
@@ -16798,28 +16798,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>168.6182976877637</v>
+        <v>202.5151178060756</v>
       </c>
       <c r="AB22" t="n">
-        <v>230.7109938105756</v>
+        <v>277.0901185185887</v>
       </c>
       <c r="AC22" t="n">
-        <v>208.6922603662743</v>
+        <v>250.6450265056797</v>
       </c>
       <c r="AD22" t="n">
-        <v>168618.2976877637</v>
+        <v>202515.1178060756</v>
       </c>
       <c r="AE22" t="n">
-        <v>230710.9938105756</v>
+        <v>277090.1185185887</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.382431047389286e-06</v>
+        <v>4.931199847167194e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.212962962962964</v>
       </c>
       <c r="AH22" t="n">
-        <v>208692.2603662743</v>
+        <v>250645.0265056797</v>
       </c>
     </row>
   </sheetData>
@@ -17095,28 +17095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>136.2702198228768</v>
+        <v>173.3617783820747</v>
       </c>
       <c r="AB2" t="n">
-        <v>186.4509265793835</v>
+        <v>237.2012333641275</v>
       </c>
       <c r="AC2" t="n">
-        <v>168.6563118322186</v>
+        <v>214.5630805659457</v>
       </c>
       <c r="AD2" t="n">
-        <v>136270.2198228768</v>
+        <v>173361.7783820747</v>
       </c>
       <c r="AE2" t="n">
-        <v>186450.9265793835</v>
+        <v>237201.2333641275</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.716877992074179e-06</v>
+        <v>5.955311629312478e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.03472222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>168656.3118322186</v>
+        <v>214563.0805659457</v>
       </c>
     </row>
     <row r="3">
@@ -17201,28 +17201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>118.6346939365744</v>
+        <v>148.3762313693003</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.3212220372648</v>
+        <v>203.0149056567278</v>
       </c>
       <c r="AC3" t="n">
-        <v>146.829512425339</v>
+        <v>183.639447994117</v>
       </c>
       <c r="AD3" t="n">
-        <v>118634.6939365744</v>
+        <v>148376.2313693003</v>
       </c>
       <c r="AE3" t="n">
-        <v>162321.2220372648</v>
+        <v>203014.9056567278</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.04491741128314e-06</v>
+        <v>6.480907834583088e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.21875</v>
       </c>
       <c r="AH3" t="n">
-        <v>146829.512425339</v>
+        <v>183639.447994117</v>
       </c>
     </row>
     <row r="4">
@@ -17307,28 +17307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.0824563916216</v>
+        <v>147.8239938243474</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.5656262652596</v>
+        <v>202.2593098847226</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.1460296533284</v>
+        <v>182.9559652221065</v>
       </c>
       <c r="AD4" t="n">
-        <v>118082.4563916216</v>
+        <v>147823.9938243474</v>
       </c>
       <c r="AE4" t="n">
-        <v>161565.6262652596</v>
+        <v>202259.3098847226</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068242940600296e-06</v>
+        <v>6.518280811661847e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>146146.0296533284</v>
+        <v>182955.9652221065</v>
       </c>
     </row>
   </sheetData>
@@ -17604,28 +17604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.1242068036012</v>
+        <v>328.5861043568194</v>
       </c>
       <c r="AB2" t="n">
-        <v>370.9641009045164</v>
+        <v>449.5860041768353</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.5598077655742</v>
+        <v>406.6781469361173</v>
       </c>
       <c r="AD2" t="n">
-        <v>271124.2068036012</v>
+        <v>328586.1043568194</v>
       </c>
       <c r="AE2" t="n">
-        <v>370964.1009045164</v>
+        <v>449586.0041768353</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404012663506328e-06</v>
+        <v>3.569581849220475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.47222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>335559.8077655742</v>
+        <v>406678.1469361173</v>
       </c>
     </row>
     <row r="3">
@@ -17710,28 +17710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.7897639410833</v>
+        <v>247.1037000183485</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.6246808926099</v>
+        <v>338.0981838108054</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.7966411724236</v>
+        <v>305.8305676717841</v>
       </c>
       <c r="AD3" t="n">
-        <v>197789.7639410833</v>
+        <v>247103.7000183485</v>
       </c>
       <c r="AE3" t="n">
-        <v>270624.6808926099</v>
+        <v>338098.1838108054</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.997864861497775e-06</v>
+        <v>4.451359245508459e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.80439814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>244796.6411724236</v>
+        <v>305830.5676717841</v>
       </c>
     </row>
     <row r="4">
@@ -17816,28 +17816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.4321718840708</v>
+        <v>226.5129846479142</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.7164782617291</v>
+        <v>309.9250586427408</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.5021336698173</v>
+        <v>280.3462460285211</v>
       </c>
       <c r="AD4" t="n">
-        <v>185432.1718840708</v>
+        <v>226512.9846479142</v>
       </c>
       <c r="AE4" t="n">
-        <v>253716.4782617291</v>
+        <v>309925.0586427408</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.215892414629708e-06</v>
+        <v>4.775095974563195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.07523148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>229502.1336698173</v>
+        <v>280346.2460285211</v>
       </c>
     </row>
     <row r="5">
@@ -17922,28 +17922,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.4683107108058</v>
+        <v>212.6343748206697</v>
       </c>
       <c r="AB5" t="n">
-        <v>234.6105073624005</v>
+        <v>290.9357323960614</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.2196098177159</v>
+        <v>263.1692344271319</v>
       </c>
       <c r="AD5" t="n">
-        <v>171468.3107108058</v>
+        <v>212634.3748206697</v>
       </c>
       <c r="AE5" t="n">
-        <v>234610.5073624005</v>
+        <v>290935.7323960614</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.323198915105682e-06</v>
+        <v>4.934429301802715e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.74537037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>212219.6098177159</v>
+        <v>263169.2344271319</v>
       </c>
     </row>
     <row r="6">
@@ -18028,28 +18028,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.9543617155306</v>
+        <v>209.1204258253945</v>
       </c>
       <c r="AB6" t="n">
-        <v>229.8025673225787</v>
+        <v>286.1277923562396</v>
       </c>
       <c r="AC6" t="n">
-        <v>207.870532827307</v>
+        <v>258.8201574367231</v>
       </c>
       <c r="AD6" t="n">
-        <v>167954.3617155305</v>
+        <v>209120.4258253945</v>
       </c>
       <c r="AE6" t="n">
-        <v>229802.5673225787</v>
+        <v>286127.7923562396</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.388803097973622e-06</v>
+        <v>5.031841226437414e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.560185185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>207870.532827307</v>
+        <v>258820.1574367231</v>
       </c>
     </row>
     <row r="7">
@@ -18134,28 +18134,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.1462046072404</v>
+        <v>206.1416765165121</v>
       </c>
       <c r="AB7" t="n">
-        <v>225.9603228798699</v>
+        <v>282.052136138684</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.3949868015852</v>
+        <v>255.1334761283503</v>
       </c>
       <c r="AD7" t="n">
-        <v>165146.2046072404</v>
+        <v>206141.6765165121</v>
       </c>
       <c r="AE7" t="n">
-        <v>225960.32287987</v>
+        <v>282052.1361386841</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.437558425002611e-06</v>
+        <v>5.104235242100231e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.421296296296298</v>
       </c>
       <c r="AH7" t="n">
-        <v>204394.9868015852</v>
+        <v>255133.4761283502</v>
       </c>
     </row>
     <row r="8">
@@ -18240,28 +18240,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>163.6008739826588</v>
+        <v>204.5963458919306</v>
       </c>
       <c r="AB8" t="n">
-        <v>223.8459333441429</v>
+        <v>279.937746602957</v>
       </c>
       <c r="AC8" t="n">
-        <v>202.4823916355829</v>
+        <v>253.220880962348</v>
       </c>
       <c r="AD8" t="n">
-        <v>163600.8739826588</v>
+        <v>204596.3458919306</v>
       </c>
       <c r="AE8" t="n">
-        <v>223845.9333441429</v>
+        <v>279937.746602957</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.457262070369092e-06</v>
+        <v>5.133492065881301e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.369212962962964</v>
       </c>
       <c r="AH8" t="n">
-        <v>202482.3916355829</v>
+        <v>253220.880962348</v>
       </c>
     </row>
     <row r="9">
@@ -18346,28 +18346,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>161.7647959731518</v>
+        <v>202.7602678824235</v>
       </c>
       <c r="AB9" t="n">
-        <v>221.3337304094917</v>
+        <v>277.4255436683058</v>
       </c>
       <c r="AC9" t="n">
-        <v>200.209949823115</v>
+        <v>250.9484391498801</v>
       </c>
       <c r="AD9" t="n">
-        <v>161764.7959731518</v>
+        <v>202760.2678824235</v>
       </c>
       <c r="AE9" t="n">
-        <v>221333.7304094917</v>
+        <v>277425.5436683058</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.48127588815949e-06</v>
+        <v>5.16914881986448e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.305555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>200209.949823115</v>
+        <v>250948.4391498801</v>
       </c>
     </row>
     <row r="10">
@@ -18452,28 +18452,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>160.0431642778608</v>
+        <v>192.976105074303</v>
       </c>
       <c r="AB10" t="n">
-        <v>218.9781179709659</v>
+        <v>264.038420467443</v>
       </c>
       <c r="AC10" t="n">
-        <v>198.0791537295985</v>
+        <v>238.838964198358</v>
       </c>
       <c r="AD10" t="n">
-        <v>160043.1642778608</v>
+        <v>192976.105074303</v>
       </c>
       <c r="AE10" t="n">
-        <v>218978.1179709659</v>
+        <v>264038.4204674429</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.507920590416434e-06</v>
+        <v>5.208712024750244e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.236111111111112</v>
       </c>
       <c r="AH10" t="n">
-        <v>198079.1537295985</v>
+        <v>238838.9641983579</v>
       </c>
     </row>
     <row r="11">
@@ -18558,28 +18558,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>158.6196368380623</v>
+        <v>191.5525776345045</v>
       </c>
       <c r="AB11" t="n">
-        <v>217.0303849262362</v>
+        <v>262.0906874227133</v>
       </c>
       <c r="AC11" t="n">
-        <v>196.3173095929967</v>
+        <v>237.0771200617562</v>
       </c>
       <c r="AD11" t="n">
-        <v>158619.6368380623</v>
+        <v>191552.5776345045</v>
       </c>
       <c r="AE11" t="n">
-        <v>217030.3849262362</v>
+        <v>262090.6874227133</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.522082585523592e-06</v>
+        <v>5.229740366842889e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.195601851851853</v>
       </c>
       <c r="AH11" t="n">
-        <v>196317.3095929967</v>
+        <v>237077.1200617562</v>
       </c>
     </row>
     <row r="12">
@@ -18664,28 +18664,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>157.2505444797445</v>
+        <v>190.1834852761867</v>
       </c>
       <c r="AB12" t="n">
-        <v>215.1571323614948</v>
+        <v>260.2174348579719</v>
       </c>
       <c r="AC12" t="n">
-        <v>194.6228376239071</v>
+        <v>235.3826480926666</v>
       </c>
       <c r="AD12" t="n">
-        <v>157250.5444797445</v>
+        <v>190183.4852761867</v>
       </c>
       <c r="AE12" t="n">
-        <v>215157.1323614948</v>
+        <v>260217.4348579718</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.533445767368466e-06</v>
+        <v>5.246612910102994e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>194622.8376239071</v>
+        <v>235382.6480926666</v>
       </c>
     </row>
     <row r="13">
@@ -18770,28 +18770,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>156.1511700800887</v>
+        <v>189.0841108765309</v>
       </c>
       <c r="AB13" t="n">
-        <v>213.6529198069109</v>
+        <v>258.713222303388</v>
       </c>
       <c r="AC13" t="n">
-        <v>193.2621850043567</v>
+        <v>234.0219954731161</v>
       </c>
       <c r="AD13" t="n">
-        <v>156151.1700800887</v>
+        <v>189084.1108765309</v>
       </c>
       <c r="AE13" t="n">
-        <v>213652.9198069109</v>
+        <v>258713.222303388</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.543801376438917e-06</v>
+        <v>5.261989365783386e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.143518518518519</v>
       </c>
       <c r="AH13" t="n">
-        <v>193262.1850043567</v>
+        <v>234021.9954731161</v>
       </c>
     </row>
     <row r="14">
@@ -18876,28 +18876,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>154.7376408383342</v>
+        <v>187.6705816347764</v>
       </c>
       <c r="AB14" t="n">
-        <v>211.7188667378344</v>
+        <v>256.7791692343116</v>
       </c>
       <c r="AC14" t="n">
-        <v>191.5127152457318</v>
+        <v>232.2725257144912</v>
       </c>
       <c r="AD14" t="n">
-        <v>154737.6408383342</v>
+        <v>187670.5816347764</v>
       </c>
       <c r="AE14" t="n">
-        <v>211718.8667378344</v>
+        <v>256779.1692343116</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.558970944320497e-06</v>
+        <v>5.284513795455744e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.10300925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>191512.7152457318</v>
+        <v>232272.5257144912</v>
       </c>
     </row>
     <row r="15">
@@ -18982,28 +18982,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>155.0183145544675</v>
+        <v>187.9512553509097</v>
       </c>
       <c r="AB15" t="n">
-        <v>212.1028968986982</v>
+        <v>257.1631993951753</v>
       </c>
       <c r="AC15" t="n">
-        <v>191.8600941070325</v>
+        <v>232.6199045757919</v>
       </c>
       <c r="AD15" t="n">
-        <v>155018.3145544674</v>
+        <v>187951.2553509097</v>
       </c>
       <c r="AE15" t="n">
-        <v>212102.8968986982</v>
+        <v>257163.1993951753</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.555668344671002e-06</v>
+        <v>5.279609952833349e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH15" t="n">
-        <v>191860.0941070325</v>
+        <v>232619.9045757919</v>
       </c>
     </row>
   </sheetData>
@@ -19279,28 +19279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.1989703783389</v>
+        <v>367.6232618838452</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.0596721674913</v>
+        <v>502.9983653031556</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.6834508238043</v>
+        <v>454.9929072812612</v>
       </c>
       <c r="AD2" t="n">
-        <v>309198.9703783389</v>
+        <v>367623.2618838452</v>
       </c>
       <c r="AE2" t="n">
-        <v>423059.6721674913</v>
+        <v>502998.3653031556</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.20737037339098e-06</v>
+        <v>3.245811164233753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.38078703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>382683.4508238042</v>
+        <v>454992.9072812612</v>
       </c>
     </row>
     <row r="3">
@@ -19385,28 +19385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.3694934452834</v>
+        <v>263.1621135620708</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.8875070644879</v>
+        <v>360.0700136686915</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.9803484956287</v>
+        <v>325.7054369255889</v>
       </c>
       <c r="AD3" t="n">
-        <v>221369.4934452834</v>
+        <v>263162.1135620708</v>
       </c>
       <c r="AE3" t="n">
-        <v>302887.5070644878</v>
+        <v>360070.0136686915</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.835407199631448e-06</v>
+        <v>4.169303192003294e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.19212962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>273980.3484956287</v>
+        <v>325705.4369255889</v>
       </c>
     </row>
     <row r="4">
@@ -19491,28 +19491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.0475969200007</v>
+        <v>239.7548761822131</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.9774593491528</v>
+        <v>328.0431988309837</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.1157509482017</v>
+        <v>296.7352163461734</v>
       </c>
       <c r="AD4" t="n">
-        <v>198047.5969200007</v>
+        <v>239754.8761822131</v>
       </c>
       <c r="AE4" t="n">
-        <v>270977.4593491527</v>
+        <v>328043.1988309837</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.065923205280621e-06</v>
+        <v>4.508263718831988e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.35300925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>245115.7509482017</v>
+        <v>296735.2163461734</v>
       </c>
     </row>
     <row r="5">
@@ -19597,28 +19597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.5506552136435</v>
+        <v>232.5310102343798</v>
       </c>
       <c r="AB5" t="n">
-        <v>249.7738600297088</v>
+        <v>318.1591867466899</v>
       </c>
       <c r="AC5" t="n">
-        <v>225.9357933883603</v>
+        <v>287.7945205029033</v>
       </c>
       <c r="AD5" t="n">
-        <v>182550.6552136435</v>
+        <v>232531.0102343798</v>
       </c>
       <c r="AE5" t="n">
-        <v>249773.8600297088</v>
+        <v>318159.1867466899</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.186967417621265e-06</v>
+        <v>4.686252270511961e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.959490740740742</v>
       </c>
       <c r="AH5" t="n">
-        <v>225935.7933883603</v>
+        <v>287794.5205029033</v>
       </c>
     </row>
     <row r="6">
@@ -19703,28 +19703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.0612300018141</v>
+        <v>219.853760610047</v>
       </c>
       <c r="AB6" t="n">
-        <v>243.6312303954249</v>
+        <v>300.8136145299051</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.3794077051356</v>
+        <v>272.1043853538195</v>
       </c>
       <c r="AD6" t="n">
-        <v>178061.2300018141</v>
+        <v>219853.760610047</v>
       </c>
       <c r="AE6" t="n">
-        <v>243631.2303954249</v>
+        <v>300813.6145299051</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266548365562486e-06</v>
+        <v>4.803271476895125e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.716435185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>220379.4077051356</v>
+        <v>272104.3853538195</v>
       </c>
     </row>
     <row r="7">
@@ -19809,28 +19809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.5400621984977</v>
+        <v>217.3325928067306</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.1816573808556</v>
+        <v>297.3640415153358</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.2590570975696</v>
+        <v>268.9840347462534</v>
       </c>
       <c r="AD7" t="n">
-        <v>175540.0621984977</v>
+        <v>217332.5928067307</v>
       </c>
       <c r="AE7" t="n">
-        <v>240181.6573808556</v>
+        <v>297364.0415153358</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.309437615245487e-06</v>
+        <v>4.866337651527539e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.58912037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>217259.0570975696</v>
+        <v>268984.0347462535</v>
       </c>
     </row>
     <row r="8">
@@ -19915,28 +19915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>173.1177538900907</v>
+        <v>214.7396922977314</v>
       </c>
       <c r="AB8" t="n">
-        <v>236.8673482885943</v>
+        <v>293.8163206482277</v>
       </c>
       <c r="AC8" t="n">
-        <v>214.2610610134106</v>
+        <v>265.7749033794435</v>
       </c>
       <c r="AD8" t="n">
-        <v>173117.7538900907</v>
+        <v>214739.6922977314</v>
       </c>
       <c r="AE8" t="n">
-        <v>236867.3482885943</v>
+        <v>293816.3206482277</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.347829526726435e-06</v>
+        <v>4.922790749024586e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>214261.0610134106</v>
+        <v>265774.9033794435</v>
       </c>
     </row>
     <row r="9">
@@ -20021,28 +20021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>171.5447636326069</v>
+        <v>213.1667020402476</v>
       </c>
       <c r="AB9" t="n">
-        <v>234.7151136228736</v>
+        <v>291.664085982507</v>
       </c>
       <c r="AC9" t="n">
-        <v>212.3142326035052</v>
+        <v>263.8280749695381</v>
       </c>
       <c r="AD9" t="n">
-        <v>171544.7636326069</v>
+        <v>213166.7020402476</v>
       </c>
       <c r="AE9" t="n">
-        <v>234715.1136228736</v>
+        <v>291664.085982507</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.370371063324534e-06</v>
+        <v>4.955936781983566e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.41550925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>212314.2326035053</v>
+        <v>263828.0749695381</v>
       </c>
     </row>
     <row r="10">
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>169.9523852414737</v>
+        <v>211.5743236491144</v>
       </c>
       <c r="AB10" t="n">
-        <v>232.5363512573496</v>
+        <v>289.485323616983</v>
       </c>
       <c r="AC10" t="n">
-        <v>210.343408260234</v>
+        <v>261.8572506262669</v>
       </c>
       <c r="AD10" t="n">
-        <v>169952.3852414737</v>
+        <v>211574.3236491144</v>
       </c>
       <c r="AE10" t="n">
-        <v>232536.3512573496</v>
+        <v>289485.323616983</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.392802908746972e-06</v>
+        <v>4.988921520378269e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH10" t="n">
-        <v>210343.408260234</v>
+        <v>261857.2506262669</v>
       </c>
     </row>
     <row r="11">
@@ -20233,28 +20233,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>168.5047744109857</v>
+        <v>210.1267128186264</v>
       </c>
       <c r="AB11" t="n">
-        <v>230.5556662549944</v>
+        <v>287.5046386146279</v>
       </c>
       <c r="AC11" t="n">
-        <v>208.5517570545942</v>
+        <v>260.065599420627</v>
       </c>
       <c r="AD11" t="n">
-        <v>168504.7744109857</v>
+        <v>210126.7128186264</v>
       </c>
       <c r="AE11" t="n">
-        <v>230555.6662549944</v>
+        <v>287504.6386146279</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.409311430683779e-06</v>
+        <v>5.013196352301998e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.311342592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>208551.7570545942</v>
+        <v>260065.599420627</v>
       </c>
     </row>
     <row r="12">
@@ -20339,28 +20339,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>167.4702419334554</v>
+        <v>209.0921803410961</v>
       </c>
       <c r="AB12" t="n">
-        <v>229.1401732788864</v>
+        <v>286.0891456385198</v>
       </c>
       <c r="AC12" t="n">
-        <v>207.2713567414685</v>
+        <v>258.7851991075013</v>
       </c>
       <c r="AD12" t="n">
-        <v>167470.2419334553</v>
+        <v>209092.1803410961</v>
       </c>
       <c r="AE12" t="n">
-        <v>229140.1732788864</v>
+        <v>286089.1456385198</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.418580335027037e-06</v>
+        <v>5.026825742983429e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH12" t="n">
-        <v>207271.3567414685</v>
+        <v>258785.1991075013</v>
       </c>
     </row>
     <row r="13">
@@ -20445,28 +20445,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>166.1735144645288</v>
+        <v>207.7954528721695</v>
       </c>
       <c r="AB13" t="n">
-        <v>227.3659335483234</v>
+        <v>284.3149059079568</v>
       </c>
       <c r="AC13" t="n">
-        <v>205.6664479606288</v>
+        <v>257.1802903266617</v>
       </c>
       <c r="AD13" t="n">
-        <v>166173.5144645287</v>
+        <v>207795.4528721695</v>
       </c>
       <c r="AE13" t="n">
-        <v>227365.9335483234</v>
+        <v>284314.9059079568</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.433059570214137e-06</v>
+        <v>5.048116625468029e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH13" t="n">
-        <v>205666.4479606288</v>
+        <v>257180.2903266617</v>
       </c>
     </row>
     <row r="14">
@@ -20551,28 +20551,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>164.82200507797</v>
+        <v>198.2561190731074</v>
       </c>
       <c r="AB14" t="n">
-        <v>225.5167387812487</v>
+        <v>271.2627685583813</v>
       </c>
       <c r="AC14" t="n">
-        <v>203.993737746762</v>
+        <v>245.3738306469356</v>
       </c>
       <c r="AD14" t="n">
-        <v>164822.00507797</v>
+        <v>198256.1190731074</v>
       </c>
       <c r="AE14" t="n">
-        <v>225516.7387812487</v>
+        <v>271262.7685583813</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.447867878928217e-06</v>
+        <v>5.069891391645461e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH14" t="n">
-        <v>203993.737746762</v>
+        <v>245373.8306469356</v>
       </c>
     </row>
     <row r="15">
@@ -20657,28 +20657,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>163.2095201228584</v>
+        <v>196.6436341179958</v>
       </c>
       <c r="AB15" t="n">
-        <v>223.3104657278505</v>
+        <v>269.0564955049831</v>
       </c>
       <c r="AC15" t="n">
-        <v>201.9980282970558</v>
+        <v>243.3781211972294</v>
       </c>
       <c r="AD15" t="n">
-        <v>163209.5201228584</v>
+        <v>196643.6341179958</v>
       </c>
       <c r="AE15" t="n">
-        <v>223310.4657278505</v>
+        <v>269056.4955049831</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.459440297960331e-06</v>
+        <v>5.086907968176714e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.172453703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>201998.0282970557</v>
+        <v>243378.1211972294</v>
       </c>
     </row>
     <row r="16">
@@ -20763,28 +20763,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>162.8392341337834</v>
+        <v>196.2733481289208</v>
       </c>
       <c r="AB16" t="n">
-        <v>222.8038241017334</v>
+        <v>268.549853878866</v>
       </c>
       <c r="AC16" t="n">
-        <v>201.5397398366591</v>
+        <v>242.9198327368327</v>
       </c>
       <c r="AD16" t="n">
-        <v>162839.2341337834</v>
+        <v>196273.3481289208</v>
       </c>
       <c r="AE16" t="n">
-        <v>222803.8241017334</v>
+        <v>268549.8538788659</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.457794930325434e-06</v>
+        <v>5.084488549712555e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH16" t="n">
-        <v>201539.7398366591</v>
+        <v>242919.8327368327</v>
       </c>
     </row>
     <row r="17">
@@ -20869,28 +20869,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>161.381142581894</v>
+        <v>194.8152565770314</v>
       </c>
       <c r="AB17" t="n">
-        <v>220.80879891398</v>
+        <v>266.5548286911127</v>
       </c>
       <c r="AC17" t="n">
-        <v>199.7351170527889</v>
+        <v>241.1152099529625</v>
       </c>
       <c r="AD17" t="n">
-        <v>161381.142581894</v>
+        <v>194815.2565770314</v>
       </c>
       <c r="AE17" t="n">
-        <v>220808.79891398</v>
+        <v>266554.8286911127</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.468215592013119e-06</v>
+        <v>5.099811533318895e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.149305555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>199735.1170527889</v>
+        <v>241115.2099529625</v>
       </c>
     </row>
     <row r="18">
@@ -20975,28 +20975,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>161.7792493087568</v>
+        <v>195.2133633038942</v>
       </c>
       <c r="AB18" t="n">
-        <v>221.3535061009027</v>
+        <v>267.0995358780353</v>
       </c>
       <c r="AC18" t="n">
-        <v>200.2278381502931</v>
+        <v>241.6079310504667</v>
       </c>
       <c r="AD18" t="n">
-        <v>161779.2493087568</v>
+        <v>195213.3633038942</v>
       </c>
       <c r="AE18" t="n">
-        <v>221353.5061009027</v>
+        <v>267099.5358780353</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.46783167289831e-06</v>
+        <v>5.099247002343924e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH18" t="n">
-        <v>200227.8381502931</v>
+        <v>241607.9310504667</v>
       </c>
     </row>
   </sheetData>
@@ -21272,28 +21272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>394.4624759451387</v>
+        <v>463.0331862657516</v>
       </c>
       <c r="AB2" t="n">
-        <v>539.7209620443748</v>
+        <v>633.542433031274</v>
       </c>
       <c r="AC2" t="n">
-        <v>488.2107509299867</v>
+        <v>573.0780324051578</v>
       </c>
       <c r="AD2" t="n">
-        <v>394462.4759451387</v>
+        <v>463033.1862657516</v>
       </c>
       <c r="AE2" t="n">
-        <v>539720.9620443748</v>
+        <v>633542.433031274</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874436770886759e-06</v>
+        <v>2.711883585601714e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.34259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>488210.7509299867</v>
+        <v>573078.0324051578</v>
       </c>
     </row>
     <row r="3">
@@ -21378,28 +21378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.7345602804141</v>
+        <v>312.6378450295783</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.8025752373822</v>
+        <v>427.7648921777593</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.7996627937922</v>
+        <v>386.93961124011</v>
       </c>
       <c r="AD3" t="n">
-        <v>252734.5602804141</v>
+        <v>312637.8450295783</v>
       </c>
       <c r="AE3" t="n">
-        <v>345802.5752373822</v>
+        <v>427764.8921777593</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.555328257193398e-06</v>
+        <v>3.69697866801273e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.99074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>312799.6627937921</v>
+        <v>386939.61124011</v>
       </c>
     </row>
     <row r="4">
@@ -21484,28 +21484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.621820214566</v>
+        <v>274.0284506099722</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.6009957989771</v>
+        <v>374.9378154065872</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.5303042701955</v>
+        <v>339.1542765327108</v>
       </c>
       <c r="AD4" t="n">
-        <v>222621.820214566</v>
+        <v>274028.4506099722</v>
       </c>
       <c r="AE4" t="n">
-        <v>304600.9957989772</v>
+        <v>374937.8154065872</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812766859114498e-06</v>
+        <v>4.069433759426567e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.8912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>275530.3042701955</v>
+        <v>339154.2765327108</v>
       </c>
     </row>
     <row r="5">
@@ -21590,28 +21590,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>213.2309148977546</v>
+        <v>256.0556395933794</v>
       </c>
       <c r="AB5" t="n">
-        <v>291.7519448470194</v>
+        <v>350.3466224690577</v>
       </c>
       <c r="AC5" t="n">
-        <v>263.9075487073322</v>
+        <v>316.9100325352883</v>
       </c>
       <c r="AD5" t="n">
-        <v>213230.9148977546</v>
+        <v>256055.6395933794</v>
       </c>
       <c r="AE5" t="n">
-        <v>291751.9448470194</v>
+        <v>350346.6224690577</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.947547587161202e-06</v>
+        <v>4.26443081119289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.39351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>263907.5487073322</v>
+        <v>316910.0325352883</v>
       </c>
     </row>
     <row r="6">
@@ -21696,28 +21696,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.4341310008231</v>
+        <v>250.2588556964478</v>
       </c>
       <c r="AB6" t="n">
-        <v>283.8205293831851</v>
+        <v>342.4152070052233</v>
       </c>
       <c r="AC6" t="n">
-        <v>256.7330964035522</v>
+        <v>309.7355802315083</v>
       </c>
       <c r="AD6" t="n">
-        <v>207434.1310008231</v>
+        <v>250258.8556964478</v>
       </c>
       <c r="AE6" t="n">
-        <v>283820.5293831851</v>
+        <v>342415.2070052233</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.036748501049142e-06</v>
+        <v>4.393484240975393e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.08680555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>256733.0964035522</v>
+        <v>309735.5802315083</v>
       </c>
     </row>
     <row r="7">
@@ -21802,28 +21802,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>194.8500174118547</v>
+        <v>237.7599934535</v>
       </c>
       <c r="AB7" t="n">
-        <v>266.6023899988576</v>
+        <v>325.3137122735451</v>
       </c>
       <c r="AC7" t="n">
-        <v>241.158232076249</v>
+        <v>294.2662281549174</v>
       </c>
       <c r="AD7" t="n">
-        <v>194850.0174118546</v>
+        <v>237759.9934535</v>
       </c>
       <c r="AE7" t="n">
-        <v>266602.3899988576</v>
+        <v>325313.7122735451</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.097256895455027e-06</v>
+        <v>4.481026122424296e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.890046296296296</v>
       </c>
       <c r="AH7" t="n">
-        <v>241158.232076249</v>
+        <v>294266.2281549174</v>
       </c>
     </row>
     <row r="8">
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>192.5381271001405</v>
+        <v>235.4481031417859</v>
       </c>
       <c r="AB8" t="n">
-        <v>263.4391596809697</v>
+        <v>322.1504819556572</v>
       </c>
       <c r="AC8" t="n">
-        <v>238.2968960202777</v>
+        <v>291.4048920989461</v>
       </c>
       <c r="AD8" t="n">
-        <v>192538.1271001406</v>
+        <v>235448.1031417859</v>
       </c>
       <c r="AE8" t="n">
-        <v>263439.1596809697</v>
+        <v>322150.4819556572</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.132725508098896e-06</v>
+        <v>4.532341136047013e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.780092592592592</v>
       </c>
       <c r="AH8" t="n">
-        <v>238296.8960202777</v>
+        <v>291404.8920989461</v>
       </c>
     </row>
     <row r="9">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>189.7598432924403</v>
+        <v>232.6698193340856</v>
       </c>
       <c r="AB9" t="n">
-        <v>259.6377892060451</v>
+        <v>318.3491114807326</v>
       </c>
       <c r="AC9" t="n">
-        <v>234.8583230082217</v>
+        <v>287.9663190868901</v>
       </c>
       <c r="AD9" t="n">
-        <v>189759.8432924403</v>
+        <v>232669.8193340857</v>
       </c>
       <c r="AE9" t="n">
-        <v>259637.789206045</v>
+        <v>318349.1114807326</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.173117375930646e-06</v>
+        <v>4.590778979918852e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.652777777777777</v>
       </c>
       <c r="AH9" t="n">
-        <v>234858.3230082217</v>
+        <v>287966.3190868901</v>
       </c>
     </row>
     <row r="10">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>189.0684746335299</v>
+        <v>231.9784506751753</v>
       </c>
       <c r="AB10" t="n">
-        <v>258.6918281058918</v>
+        <v>317.4031503805793</v>
       </c>
       <c r="AC10" t="n">
-        <v>234.002643107802</v>
+        <v>287.1106391864704</v>
       </c>
       <c r="AD10" t="n">
-        <v>189068.47463353</v>
+        <v>231978.4506751753</v>
       </c>
       <c r="AE10" t="n">
-        <v>258691.8281058918</v>
+        <v>317403.1503805793</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.180264036687247e-06</v>
+        <v>4.601118572215968e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>234002.643107802</v>
+        <v>287110.6391864704</v>
       </c>
     </row>
     <row r="11">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>187.1457291477369</v>
+        <v>230.0557051893823</v>
       </c>
       <c r="AB11" t="n">
-        <v>256.061042906687</v>
+        <v>314.7723651813745</v>
       </c>
       <c r="AC11" t="n">
-        <v>231.6229363556782</v>
+        <v>284.7309324343466</v>
       </c>
       <c r="AD11" t="n">
-        <v>187145.7291477369</v>
+        <v>230055.7051893822</v>
       </c>
       <c r="AE11" t="n">
-        <v>256061.042906687</v>
+        <v>314772.3651813745</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.209221247308435e-06</v>
+        <v>4.643013068412424e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.548611111111112</v>
       </c>
       <c r="AH11" t="n">
-        <v>231622.9363556782</v>
+        <v>284730.9324343466</v>
       </c>
     </row>
     <row r="12">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>185.9484516296633</v>
+        <v>228.8584276713086</v>
       </c>
       <c r="AB12" t="n">
-        <v>254.4228749863032</v>
+        <v>313.1341972609907</v>
       </c>
       <c r="AC12" t="n">
-        <v>230.1411128824322</v>
+        <v>283.2491089611007</v>
       </c>
       <c r="AD12" t="n">
-        <v>185948.4516296633</v>
+        <v>228858.4276713086</v>
       </c>
       <c r="AE12" t="n">
-        <v>254422.8749863032</v>
+        <v>313134.1972609907</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.223302815910329e-06</v>
+        <v>4.663385894716368e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.502314814814817</v>
       </c>
       <c r="AH12" t="n">
-        <v>230141.1128824322</v>
+        <v>283249.1089611007</v>
       </c>
     </row>
     <row r="13">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>184.9006592951724</v>
+        <v>227.6400431362255</v>
       </c>
       <c r="AB13" t="n">
-        <v>252.9892392889181</v>
+        <v>311.4671497887587</v>
       </c>
       <c r="AC13" t="n">
-        <v>228.8443013638848</v>
+        <v>281.7411621599022</v>
       </c>
       <c r="AD13" t="n">
-        <v>184900.6592951724</v>
+        <v>227640.0431362255</v>
       </c>
       <c r="AE13" t="n">
-        <v>252989.2392889181</v>
+        <v>311467.1497887587</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.234155152614798e-06</v>
+        <v>4.679086757093468e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.473379629629632</v>
       </c>
       <c r="AH13" t="n">
-        <v>228844.3013638848</v>
+        <v>281741.1621599022</v>
       </c>
     </row>
     <row r="14">
@@ -22544,28 +22544,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>183.8824756336397</v>
+        <v>226.6218594746928</v>
       </c>
       <c r="AB14" t="n">
-        <v>251.5961154841168</v>
+        <v>310.0740259839575</v>
       </c>
       <c r="AC14" t="n">
-        <v>227.5841353397517</v>
+        <v>280.4809961357691</v>
       </c>
       <c r="AD14" t="n">
-        <v>183882.4756336397</v>
+        <v>226621.8594746928</v>
       </c>
       <c r="AE14" t="n">
-        <v>251596.1154841168</v>
+        <v>310074.0259839575</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.246648574381892e-06</v>
+        <v>4.697161896220276e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.438657407407407</v>
       </c>
       <c r="AH14" t="n">
-        <v>227584.1353397517</v>
+        <v>280480.9961357691</v>
       </c>
     </row>
     <row r="15">
@@ -22650,28 +22650,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>182.8354184528642</v>
+        <v>225.5748022939173</v>
       </c>
       <c r="AB15" t="n">
-        <v>250.1634856564778</v>
+        <v>308.6413961563185</v>
       </c>
       <c r="AC15" t="n">
-        <v>226.2882336921536</v>
+        <v>279.1850944881709</v>
       </c>
       <c r="AD15" t="n">
-        <v>182835.4184528642</v>
+        <v>225574.8022939173</v>
       </c>
       <c r="AE15" t="n">
-        <v>250163.4856564778</v>
+        <v>308641.3961563185</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.259406687288119e-06</v>
+        <v>4.71561998320994e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.398148148148147</v>
       </c>
       <c r="AH15" t="n">
-        <v>226288.2336921536</v>
+        <v>279185.0944881709</v>
       </c>
     </row>
     <row r="16">
@@ -22756,28 +22756,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>181.3112532723118</v>
+        <v>224.0506371133649</v>
       </c>
       <c r="AB16" t="n">
-        <v>248.078055615025</v>
+        <v>306.5559661148656</v>
       </c>
       <c r="AC16" t="n">
-        <v>224.4018341669369</v>
+        <v>277.2986949629542</v>
       </c>
       <c r="AD16" t="n">
-        <v>181311.2532723118</v>
+        <v>224050.6371133649</v>
       </c>
       <c r="AE16" t="n">
-        <v>248078.055615025</v>
+        <v>306555.9661148656</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.27354119411784e-06</v>
+        <v>4.736069399086455e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH16" t="n">
-        <v>224401.8341669369</v>
+        <v>277298.6949629543</v>
       </c>
     </row>
     <row r="17">
@@ -22862,28 +22862,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>181.1665341149734</v>
+        <v>223.9059179560266</v>
       </c>
       <c r="AB17" t="n">
-        <v>247.8800444793961</v>
+        <v>306.3579549792368</v>
       </c>
       <c r="AC17" t="n">
-        <v>224.222720936182</v>
+        <v>277.1195817321994</v>
       </c>
       <c r="AD17" t="n">
-        <v>181166.5341149734</v>
+        <v>223905.9179560266</v>
       </c>
       <c r="AE17" t="n">
-        <v>247880.0444793961</v>
+        <v>306357.9549792368</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.27354119411784e-06</v>
+        <v>4.736069399086455e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH17" t="n">
-        <v>224222.720936182</v>
+        <v>277119.5817321994</v>
       </c>
     </row>
     <row r="18">
@@ -22968,28 +22968,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>179.7165184689243</v>
+        <v>222.4559023099775</v>
       </c>
       <c r="AB18" t="n">
-        <v>245.8960691022972</v>
+        <v>304.3739796021379</v>
       </c>
       <c r="AC18" t="n">
-        <v>222.4280933845459</v>
+        <v>275.3249541805632</v>
       </c>
       <c r="AD18" t="n">
-        <v>179716.5184689243</v>
+        <v>222455.9023099775</v>
       </c>
       <c r="AE18" t="n">
-        <v>245896.0691022972</v>
+        <v>304373.9796021379</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.287463948036255e-06</v>
+        <v>4.756212456672685e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH18" t="n">
-        <v>222428.0933845459</v>
+        <v>275324.9541805632</v>
       </c>
     </row>
     <row r="19">
@@ -23074,28 +23074,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>179.4025123156545</v>
+        <v>222.1418961567077</v>
       </c>
       <c r="AB19" t="n">
-        <v>245.4664320304199</v>
+        <v>303.9443425302605</v>
       </c>
       <c r="AC19" t="n">
-        <v>222.039460271809</v>
+        <v>274.9363210678263</v>
       </c>
       <c r="AD19" t="n">
-        <v>179402.5123156545</v>
+        <v>222141.8961567077</v>
       </c>
       <c r="AE19" t="n">
-        <v>245466.4320304199</v>
+        <v>303944.3425302606</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.287411009808428e-06</v>
+        <v>4.756135867100115e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.317129629629632</v>
       </c>
       <c r="AH19" t="n">
-        <v>222039.460271809</v>
+        <v>274936.3210678263</v>
       </c>
     </row>
     <row r="20">
@@ -23180,28 +23180,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>177.7760723867844</v>
+        <v>220.5154562278375</v>
       </c>
       <c r="AB20" t="n">
-        <v>243.2410651662754</v>
+        <v>301.718975666116</v>
       </c>
       <c r="AC20" t="n">
-        <v>220.0264792978557</v>
+        <v>272.923340093873</v>
       </c>
       <c r="AD20" t="n">
-        <v>177776.0723867844</v>
+        <v>220515.4562278375</v>
       </c>
       <c r="AE20" t="n">
-        <v>243241.0651662754</v>
+        <v>301718.975666116</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.298528037652029e-06</v>
+        <v>4.77221967734007e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH20" t="n">
-        <v>220026.4792978557</v>
+        <v>272923.340093873</v>
       </c>
     </row>
     <row r="21">
@@ -23286,28 +23286,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>177.8393517766813</v>
+        <v>220.5787356177344</v>
       </c>
       <c r="AB21" t="n">
-        <v>243.3276468192218</v>
+        <v>301.8055573190625</v>
       </c>
       <c r="AC21" t="n">
-        <v>220.104797719363</v>
+        <v>273.0016585153804</v>
       </c>
       <c r="AD21" t="n">
-        <v>177839.3517766813</v>
+        <v>220578.7356177344</v>
       </c>
       <c r="AE21" t="n">
-        <v>243327.6468192218</v>
+        <v>301805.5573190625</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.300857319676402e-06</v>
+        <v>4.775589618533204e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH21" t="n">
-        <v>220104.797719363</v>
+        <v>273001.6585153804</v>
       </c>
     </row>
     <row r="22">
@@ -23392,28 +23392,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>177.133807936452</v>
+        <v>219.8731917775051</v>
       </c>
       <c r="AB22" t="n">
-        <v>242.3622906106232</v>
+        <v>300.8402011104638</v>
       </c>
       <c r="AC22" t="n">
-        <v>219.2315737524268</v>
+        <v>272.1284345484441</v>
       </c>
       <c r="AD22" t="n">
-        <v>177133.807936452</v>
+        <v>219873.1917775051</v>
       </c>
       <c r="AE22" t="n">
-        <v>242362.2906106232</v>
+        <v>300840.2011104638</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.302657219422509e-06</v>
+        <v>4.778193664000625e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH22" t="n">
-        <v>219231.5737524268</v>
+        <v>272128.4345484442</v>
       </c>
     </row>
     <row r="23">
@@ -23498,28 +23498,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>176.0536253750163</v>
+        <v>218.7930092160694</v>
       </c>
       <c r="AB23" t="n">
-        <v>240.8843371757762</v>
+        <v>299.3622476756169</v>
       </c>
       <c r="AC23" t="n">
-        <v>217.8946741190805</v>
+        <v>270.7915349150979</v>
       </c>
       <c r="AD23" t="n">
-        <v>176053.6253750162</v>
+        <v>218793.0092160694</v>
       </c>
       <c r="AE23" t="n">
-        <v>240884.3371757762</v>
+        <v>299362.2476756169</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.301492578410323e-06</v>
+        <v>4.776508693404059e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH23" t="n">
-        <v>217894.6741190805</v>
+        <v>270791.5349150979</v>
       </c>
     </row>
     <row r="24">
@@ -23604,28 +23604,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>175.5450891192157</v>
+        <v>218.2844729602689</v>
       </c>
       <c r="AB24" t="n">
-        <v>240.1885354355541</v>
+        <v>298.6664459353947</v>
       </c>
       <c r="AC24" t="n">
-        <v>217.265278720381</v>
+        <v>270.1621395163984</v>
       </c>
       <c r="AD24" t="n">
-        <v>175545.0891192157</v>
+        <v>218284.4729602688</v>
       </c>
       <c r="AE24" t="n">
-        <v>240188.535435554</v>
+        <v>298666.4459353947</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.314674197139163e-06</v>
+        <v>4.795579496974292e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.241898148148149</v>
       </c>
       <c r="AH24" t="n">
-        <v>217265.278720381</v>
+        <v>270162.1395163984</v>
       </c>
     </row>
     <row r="25">
@@ -23710,28 +23710,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>175.6204401370077</v>
+        <v>218.3598239780608</v>
       </c>
       <c r="AB25" t="n">
-        <v>240.2916340223493</v>
+        <v>298.76954452219</v>
       </c>
       <c r="AC25" t="n">
-        <v>217.3585377227523</v>
+        <v>270.2553985187697</v>
       </c>
       <c r="AD25" t="n">
-        <v>175620.4401370077</v>
+        <v>218359.8239780608</v>
       </c>
       <c r="AE25" t="n">
-        <v>240291.6340223493</v>
+        <v>298769.5445221899</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.313191926760017e-06</v>
+        <v>4.793434988942299e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH25" t="n">
-        <v>217358.5377227523</v>
+        <v>270255.3985187697</v>
       </c>
     </row>
     <row r="26">
@@ -23816,28 +23816,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>175.887783201004</v>
+        <v>218.6271670420572</v>
       </c>
       <c r="AB26" t="n">
-        <v>240.6574245968525</v>
+        <v>299.1353350966932</v>
       </c>
       <c r="AC26" t="n">
-        <v>217.6894177582153</v>
+        <v>270.5862785542326</v>
       </c>
       <c r="AD26" t="n">
-        <v>175887.783201004</v>
+        <v>218627.1670420571</v>
       </c>
       <c r="AE26" t="n">
-        <v>240657.4245968524</v>
+        <v>299135.3350966931</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.313986000177417e-06</v>
+        <v>4.794583832530866e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>10</v>
+        <v>9.241898148148149</v>
       </c>
       <c r="AH26" t="n">
-        <v>217689.4177582153</v>
+        <v>270586.2785542327</v>
       </c>
     </row>
   </sheetData>
@@ -24113,28 +24113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>236.1619465929588</v>
+        <v>292.7472703707826</v>
       </c>
       <c r="AB2" t="n">
-        <v>323.127194058102</v>
+        <v>400.5497304193727</v>
       </c>
       <c r="AC2" t="n">
-        <v>292.2883881691578</v>
+        <v>362.3218263232244</v>
       </c>
       <c r="AD2" t="n">
-        <v>236161.9465929588</v>
+        <v>292747.2703707826</v>
       </c>
       <c r="AE2" t="n">
-        <v>323127.194058102</v>
+        <v>400549.7304193727</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.621124818194991e-06</v>
+        <v>3.93610281094821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.64467592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>292288.3881691578</v>
+        <v>362321.8263232244</v>
       </c>
     </row>
     <row r="3">
@@ -24219,28 +24219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.4351510005575</v>
+        <v>223.8289458205311</v>
       </c>
       <c r="AB3" t="n">
-        <v>250.984066186564</v>
+        <v>306.2526383076809</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.0304991681407</v>
+        <v>277.0243163359639</v>
       </c>
       <c r="AD3" t="n">
-        <v>183435.1510005575</v>
+        <v>223828.9458205311</v>
       </c>
       <c r="AE3" t="n">
-        <v>250984.066186564</v>
+        <v>306252.6383076809</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168693467806333e-06</v>
+        <v>4.758378227197382e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.45717592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>227030.4991681407</v>
+        <v>277024.3163359639</v>
       </c>
     </row>
     <row r="4">
@@ -24325,28 +24325,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>165.6982022246852</v>
+        <v>206.1772483906793</v>
       </c>
       <c r="AB4" t="n">
-        <v>226.7155903724738</v>
+        <v>282.1008071462398</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.0781726247197</v>
+        <v>255.1775020432551</v>
       </c>
       <c r="AD4" t="n">
-        <v>165698.2022246852</v>
+        <v>206177.2483906793</v>
       </c>
       <c r="AE4" t="n">
-        <v>226715.5903724738</v>
+        <v>282100.8071462398</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.358432505162506e-06</v>
+        <v>5.043306420276924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.866898148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>205078.1726247197</v>
+        <v>255177.5020432551</v>
       </c>
     </row>
     <row r="5">
@@ -24431,28 +24431,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.511295043524</v>
+        <v>200.9903412095182</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.6186351370178</v>
+        <v>275.0038519107839</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.6585408362942</v>
+        <v>248.7578702548296</v>
       </c>
       <c r="AD5" t="n">
-        <v>160511.295043524</v>
+        <v>200990.3412095182</v>
       </c>
       <c r="AE5" t="n">
-        <v>219618.6351370178</v>
+        <v>275003.8519107839</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.465758480413177e-06</v>
+        <v>5.204476185997137e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.560185185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>198658.5408362942</v>
+        <v>248757.8702548296</v>
       </c>
     </row>
     <row r="6">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.308341174219</v>
+        <v>197.616795139621</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.236212348685</v>
+        <v>270.3880173476041</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.6943703281094</v>
+        <v>244.5825644639938</v>
       </c>
       <c r="AD6" t="n">
-        <v>157308.341174219</v>
+        <v>197616.795139621</v>
       </c>
       <c r="AE6" t="n">
-        <v>215236.212348685</v>
+        <v>270388.0173476042</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.52532038770277e-06</v>
+        <v>5.293919385756487e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.403935185185185</v>
       </c>
       <c r="AH6" t="n">
-        <v>194694.3703281094</v>
+        <v>244582.5644639938</v>
       </c>
     </row>
     <row r="7">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>154.7882264023304</v>
+        <v>195.0966803677323</v>
       </c>
       <c r="AB7" t="n">
-        <v>211.7880801381716</v>
+        <v>266.9398851370908</v>
       </c>
       <c r="AC7" t="n">
-        <v>191.5753230162823</v>
+        <v>241.4635171521668</v>
       </c>
       <c r="AD7" t="n">
-        <v>154788.2264023304</v>
+        <v>195096.6803677323</v>
       </c>
       <c r="AE7" t="n">
-        <v>211788.0801381716</v>
+        <v>266939.8851370908</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.570106360299367e-06</v>
+        <v>5.361173791729382e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH7" t="n">
-        <v>191575.3230162823</v>
+        <v>241463.5171521668</v>
       </c>
     </row>
     <row r="8">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>152.987734543469</v>
+        <v>185.3710609848154</v>
       </c>
       <c r="AB8" t="n">
-        <v>209.3245677447839</v>
+        <v>253.6328636333452</v>
       </c>
       <c r="AC8" t="n">
-        <v>189.3469247881575</v>
+        <v>229.4264991042124</v>
       </c>
       <c r="AD8" t="n">
-        <v>152987.734543469</v>
+        <v>185371.0609848154</v>
       </c>
       <c r="AE8" t="n">
-        <v>209324.5677447839</v>
+        <v>253632.8636333452</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.593186599374084e-06</v>
+        <v>5.395833031636129e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.224537037037036</v>
       </c>
       <c r="AH8" t="n">
-        <v>189346.9247881575</v>
+        <v>229426.4991042124</v>
       </c>
     </row>
     <row r="9">
@@ -24855,28 +24855,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>151.0108907540528</v>
+        <v>183.3942171953992</v>
       </c>
       <c r="AB9" t="n">
-        <v>206.6197628599132</v>
+        <v>250.9280587484744</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.9002626852804</v>
+        <v>226.9798370013353</v>
       </c>
       <c r="AD9" t="n">
-        <v>151010.8907540528</v>
+        <v>183394.2171953992</v>
       </c>
       <c r="AE9" t="n">
-        <v>206619.7628599131</v>
+        <v>250928.0587484744</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.620504897236715e-06</v>
+        <v>5.436856499218061e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH9" t="n">
-        <v>186900.2626852804</v>
+        <v>226979.8370013353</v>
       </c>
     </row>
     <row r="10">
@@ -24961,28 +24961,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.3583351118731</v>
+        <v>181.7416615532194</v>
       </c>
       <c r="AB10" t="n">
-        <v>204.3586633246744</v>
+        <v>248.6669592132357</v>
       </c>
       <c r="AC10" t="n">
-        <v>184.854959316211</v>
+        <v>224.9345336322659</v>
       </c>
       <c r="AD10" t="n">
-        <v>149358.335111873</v>
+        <v>181741.6615532194</v>
       </c>
       <c r="AE10" t="n">
-        <v>204358.6633246744</v>
+        <v>248666.9592132357</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.635109018735605e-06</v>
+        <v>5.45878728377444e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.12037037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>184854.959316211</v>
+        <v>224934.5336322659</v>
       </c>
     </row>
     <row r="11">
@@ -25067,28 +25067,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.8201552410859</v>
+        <v>180.2034816824322</v>
       </c>
       <c r="AB11" t="n">
-        <v>202.2540577657579</v>
+        <v>246.5623536543192</v>
       </c>
       <c r="AC11" t="n">
-        <v>182.9512143580043</v>
+        <v>223.0307886740593</v>
       </c>
       <c r="AD11" t="n">
-        <v>147820.1552410859</v>
+        <v>180203.4816824322</v>
       </c>
       <c r="AE11" t="n">
-        <v>202254.0577657579</v>
+        <v>246562.3536543192</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.643699678440835e-06</v>
+        <v>5.471687745278192e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.097222222222223</v>
       </c>
       <c r="AH11" t="n">
-        <v>182951.2143580043</v>
+        <v>223030.7886740593</v>
       </c>
     </row>
     <row r="12">
@@ -25173,28 +25173,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>147.7107348049693</v>
+        <v>180.0940612463156</v>
       </c>
       <c r="AB12" t="n">
-        <v>202.1043438977743</v>
+        <v>246.4126397863355</v>
       </c>
       <c r="AC12" t="n">
-        <v>182.8157889714563</v>
+        <v>222.8953632875112</v>
       </c>
       <c r="AD12" t="n">
-        <v>147710.7348049693</v>
+        <v>180094.0612463156</v>
       </c>
       <c r="AE12" t="n">
-        <v>202104.3438977743</v>
+        <v>246412.6397863356</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.654695722863529e-06</v>
+        <v>5.488200336002996e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.068287037037036</v>
       </c>
       <c r="AH12" t="n">
-        <v>182815.7889714563</v>
+        <v>222895.3632875112</v>
       </c>
     </row>
   </sheetData>
@@ -25470,28 +25470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.4076515045776</v>
+        <v>238.3862112564673</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.8923930980578</v>
+        <v>326.1705310983443</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.8977506691379</v>
+        <v>295.0412733936308</v>
       </c>
       <c r="AD2" t="n">
-        <v>191407.6515045775</v>
+        <v>238386.2112564673</v>
       </c>
       <c r="AE2" t="n">
-        <v>261892.3930980578</v>
+        <v>326170.5310983442</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.006020335748184e-06</v>
+        <v>4.610473917026135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.48726851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>236897.7506691379</v>
+        <v>295041.2733936308</v>
       </c>
     </row>
     <row r="3">
@@ -25576,28 +25576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>153.0301175520617</v>
+        <v>200.0085877954004</v>
       </c>
       <c r="AB3" t="n">
-        <v>209.3825580469467</v>
+        <v>273.6605735776848</v>
       </c>
       <c r="AC3" t="n">
-        <v>189.3993805772718</v>
+        <v>247.5427925205382</v>
       </c>
       <c r="AD3" t="n">
-        <v>153030.1175520617</v>
+        <v>200008.5877954004</v>
       </c>
       <c r="AE3" t="n">
-        <v>209382.5580469467</v>
+        <v>273660.5735776848</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476180815744045e-06</v>
+        <v>5.331581024672458e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.930555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>189399.3805772718</v>
+        <v>247542.7925205382</v>
       </c>
     </row>
     <row r="4">
@@ -25682,28 +25682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.01326190658</v>
+        <v>185.1336296663895</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.7817865909803</v>
+        <v>253.3079996287445</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.7148932742923</v>
+        <v>229.1326396642613</v>
       </c>
       <c r="AD4" t="n">
-        <v>146013.26190658</v>
+        <v>185133.6296663895</v>
       </c>
       <c r="AE4" t="n">
-        <v>199781.7865909802</v>
+        <v>253307.9996287446</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.643818291798907e-06</v>
+        <v>5.588694458562341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.473379629629632</v>
       </c>
       <c r="AH4" t="n">
-        <v>180714.8932742923</v>
+        <v>229132.6396642613</v>
       </c>
     </row>
     <row r="5">
@@ -25788,28 +25788,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>142.0610063661613</v>
+        <v>181.1813741259707</v>
       </c>
       <c r="AB5" t="n">
-        <v>194.3741361993734</v>
+        <v>247.9003492371376</v>
       </c>
       <c r="AC5" t="n">
-        <v>175.8233414463737</v>
+        <v>224.2410878363426</v>
       </c>
       <c r="AD5" t="n">
-        <v>142061.0063661613</v>
+        <v>181181.3741259707</v>
       </c>
       <c r="AE5" t="n">
-        <v>194374.1361993734</v>
+        <v>247900.3492371376</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.728412576868585e-06</v>
+        <v>5.718440668261934e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.25925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>175823.3414463737</v>
+        <v>224241.0878363426</v>
       </c>
     </row>
     <row r="6">
@@ -25894,28 +25894,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>139.6047608148181</v>
+        <v>171.0376182916904</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.0133926741214</v>
+        <v>234.0212149937587</v>
       </c>
       <c r="AC6" t="n">
-        <v>172.7833425663375</v>
+        <v>211.68655868566</v>
       </c>
       <c r="AD6" t="n">
-        <v>139604.7608148181</v>
+        <v>171037.6182916905</v>
       </c>
       <c r="AE6" t="n">
-        <v>191013.3926741214</v>
+        <v>234021.2149937587</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.771604581375247e-06</v>
+        <v>5.784686264751711e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.155092592592593</v>
       </c>
       <c r="AH6" t="n">
-        <v>172783.3425663375</v>
+        <v>211686.55868566</v>
       </c>
     </row>
     <row r="7">
@@ -26000,28 +26000,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.1926919396894</v>
+        <v>168.6255494165618</v>
       </c>
       <c r="AB7" t="n">
-        <v>187.7130936262035</v>
+        <v>230.7209159458408</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.798019427553</v>
+        <v>208.7012355468756</v>
       </c>
       <c r="AD7" t="n">
-        <v>137192.6919396894</v>
+        <v>168625.5494165618</v>
       </c>
       <c r="AE7" t="n">
-        <v>187713.0936262035</v>
+        <v>230720.9159458408</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.808651867008723e-06</v>
+        <v>5.841507418646949e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH7" t="n">
-        <v>169798.019427553</v>
+        <v>208701.2355468756</v>
       </c>
     </row>
     <row r="8">
@@ -26106,28 +26106,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.7196019726688</v>
+        <v>168.1524594495412</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.0657910620699</v>
+        <v>230.0736133817072</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.2124945116453</v>
+        <v>208.1157106309679</v>
       </c>
       <c r="AD8" t="n">
-        <v>136719.6019726688</v>
+        <v>168152.4594495412</v>
       </c>
       <c r="AE8" t="n">
-        <v>187065.7910620699</v>
+        <v>230073.6133817072</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.815393160529791e-06</v>
+        <v>5.851846855668144e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.050925925925926</v>
       </c>
       <c r="AH8" t="n">
-        <v>169212.4945116453</v>
+        <v>208115.7106309679</v>
       </c>
     </row>
   </sheetData>
@@ -49096,28 +49096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>160.1880021309872</v>
+        <v>206.1122218169634</v>
       </c>
       <c r="AB2" t="n">
-        <v>219.1762915114084</v>
+        <v>282.0118349193118</v>
       </c>
       <c r="AC2" t="n">
-        <v>198.2584138654796</v>
+        <v>255.0970212007918</v>
       </c>
       <c r="AD2" t="n">
-        <v>160188.0021309872</v>
+        <v>206112.2218169634</v>
       </c>
       <c r="AE2" t="n">
-        <v>219176.2915114084</v>
+        <v>282011.8349193118</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.321882015541693e-06</v>
+        <v>5.190375123946824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH2" t="n">
-        <v>198258.4138654796</v>
+        <v>255097.0212007918</v>
       </c>
     </row>
     <row r="3">
@@ -49202,28 +49202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>137.0952422984078</v>
+        <v>175.4365427488643</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.5797587278273</v>
+        <v>240.0400175029114</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.6774098247411</v>
+        <v>217.1309351307836</v>
       </c>
       <c r="AD3" t="n">
-        <v>137095.2422984078</v>
+        <v>175436.5427488643</v>
       </c>
       <c r="AE3" t="n">
-        <v>187579.7587278273</v>
+        <v>240040.0175029114</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.728014614640302e-06</v>
+        <v>5.82494929892442e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.577546296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>169677.4098247411</v>
+        <v>217130.9351307836</v>
       </c>
     </row>
     <row r="4">
@@ -49308,28 +49308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>131.6513221678757</v>
+        <v>162.324452036792</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.1311470364311</v>
+        <v>222.0994765260469</v>
       </c>
       <c r="AC4" t="n">
-        <v>162.9396831789773</v>
+        <v>200.9026142050378</v>
       </c>
       <c r="AD4" t="n">
-        <v>131651.3221678757</v>
+        <v>162324.452036792</v>
       </c>
       <c r="AE4" t="n">
-        <v>180131.1470364311</v>
+        <v>222099.4765260469</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.869337157101298e-06</v>
+        <v>6.045762983880915e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.230324074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>162939.6831789773</v>
+        <v>200902.6142050378</v>
       </c>
     </row>
     <row r="5">
@@ -49414,28 +49414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.5066599840977</v>
+        <v>159.179789853014</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.8284815038839</v>
+        <v>217.7968109934997</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.047658006026</v>
+        <v>197.0105890320866</v>
       </c>
       <c r="AD5" t="n">
-        <v>128506.6599840977</v>
+        <v>159179.789853014</v>
       </c>
       <c r="AE5" t="n">
-        <v>175828.4815038839</v>
+        <v>217796.8109934997</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.925681035383782e-06</v>
+        <v>6.133799182293702e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.097222222222223</v>
       </c>
       <c r="AH5" t="n">
-        <v>159047.658006026</v>
+        <v>197010.5890320865</v>
       </c>
     </row>
     <row r="6">
@@ -49520,28 +49520,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>128.4899949429909</v>
+        <v>159.1631248119072</v>
       </c>
       <c r="AB6" t="n">
-        <v>175.8056796594319</v>
+        <v>217.7740091490477</v>
       </c>
       <c r="AC6" t="n">
-        <v>159.0270323376059</v>
+        <v>196.9899633636664</v>
       </c>
       <c r="AD6" t="n">
-        <v>128489.9949429909</v>
+        <v>159163.1248119072</v>
       </c>
       <c r="AE6" t="n">
-        <v>175805.6796594319</v>
+        <v>217774.0091490477</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.93401227696991e-06</v>
+        <v>6.146816582935242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.079861111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>159027.0323376059</v>
+        <v>196989.9633636664</v>
       </c>
     </row>
   </sheetData>
@@ -49817,28 +49817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.3530007384621</v>
+        <v>151.811781534285</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.8310646255237</v>
+        <v>207.7155769582339</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.7678893349975</v>
+        <v>187.8914938240425</v>
       </c>
       <c r="AD2" t="n">
-        <v>115353.0007384621</v>
+        <v>151811.7815342851</v>
       </c>
       <c r="AE2" t="n">
-        <v>157831.0646255237</v>
+        <v>207715.5769582339</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.972020267254242e-06</v>
+        <v>6.473106629716344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.652777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>142767.8893349975</v>
+        <v>187891.4938240425</v>
       </c>
     </row>
     <row r="3">
@@ -49923,28 +49923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>111.4142388722893</v>
+        <v>147.7024274675201</v>
       </c>
       <c r="AB3" t="n">
-        <v>152.4418768743191</v>
+        <v>202.0929774321824</v>
       </c>
       <c r="AC3" t="n">
-        <v>137.8930380989937</v>
+        <v>182.8055073053876</v>
       </c>
       <c r="AD3" t="n">
-        <v>111414.2388722893</v>
+        <v>147702.4274675201</v>
       </c>
       <c r="AE3" t="n">
-        <v>152441.8768743191</v>
+        <v>202092.9774321824</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129663775117987e-06</v>
+        <v>6.73001449201936e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.282407407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>137893.0380989937</v>
+        <v>182805.5073053876</v>
       </c>
     </row>
   </sheetData>
@@ -50220,28 +50220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.3829027162134</v>
+        <v>350.5897861208398</v>
       </c>
       <c r="AB2" t="n">
-        <v>389.1052335845337</v>
+        <v>479.6924123002965</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.9695762038502</v>
+        <v>433.9112417228845</v>
       </c>
       <c r="AD2" t="n">
-        <v>284382.9027162134</v>
+        <v>350589.7861208398</v>
       </c>
       <c r="AE2" t="n">
-        <v>389105.2335845337</v>
+        <v>479692.4123002965</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.311886611786405e-06</v>
+        <v>3.415536903054513e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.86574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>351969.5762038502</v>
+        <v>433911.2417228845</v>
       </c>
     </row>
     <row r="3">
@@ -50326,28 +50326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>213.7937456168739</v>
+        <v>255.2798133215304</v>
       </c>
       <c r="AB3" t="n">
-        <v>292.5220346672569</v>
+        <v>349.2851027368748</v>
       </c>
       <c r="AC3" t="n">
-        <v>264.6041422359543</v>
+        <v>315.9498227564924</v>
       </c>
       <c r="AD3" t="n">
-        <v>213793.7456168739</v>
+        <v>255279.8133215304</v>
       </c>
       <c r="AE3" t="n">
-        <v>292522.0346672569</v>
+        <v>349285.1027368748</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.913621906587912e-06</v>
+        <v>4.304529077145972e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.00115740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>264604.1422359543</v>
+        <v>315949.8227564924</v>
       </c>
     </row>
     <row r="4">
@@ -50432,28 +50432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>192.1461732397588</v>
+        <v>233.5469000898437</v>
       </c>
       <c r="AB4" t="n">
-        <v>262.9028711174117</v>
+        <v>319.5491720648322</v>
       </c>
       <c r="AC4" t="n">
-        <v>237.8117900845399</v>
+        <v>289.0518475731392</v>
       </c>
       <c r="AD4" t="n">
-        <v>192146.1732397588</v>
+        <v>233546.9000898437</v>
       </c>
       <c r="AE4" t="n">
-        <v>262902.8711174117</v>
+        <v>319549.1720648322</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.133366352365099e-06</v>
+        <v>4.62917530329168e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.23148148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>237811.7900845399</v>
+        <v>289051.8475731392</v>
       </c>
     </row>
     <row r="5">
@@ -50538,28 +50538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.5391745455438</v>
+        <v>219.0251527416492</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.916931088695</v>
+        <v>299.6798766887646</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.7332801217144</v>
+        <v>271.078849861026</v>
       </c>
       <c r="AD5" t="n">
-        <v>177539.1745455438</v>
+        <v>219025.1527416492</v>
       </c>
       <c r="AE5" t="n">
-        <v>242916.931088695</v>
+        <v>299679.8766887646</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.243210878701414e-06</v>
+        <v>4.79145749800984e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.884259259259258</v>
       </c>
       <c r="AH5" t="n">
-        <v>219733.2801217144</v>
+        <v>271078.849861026</v>
       </c>
     </row>
     <row r="6">
@@ -50644,28 +50644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.1546980404179</v>
+        <v>214.6406762365233</v>
       </c>
       <c r="AB6" t="n">
-        <v>236.9178969049329</v>
+        <v>293.6808425050025</v>
       </c>
       <c r="AC6" t="n">
-        <v>214.3067853407513</v>
+        <v>265.6523550800629</v>
       </c>
       <c r="AD6" t="n">
-        <v>173154.6980404179</v>
+        <v>214640.6762365233</v>
       </c>
       <c r="AE6" t="n">
-        <v>236917.8969049329</v>
+        <v>293680.8425050025</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.324860314818271e-06</v>
+        <v>4.912084807649056e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.641203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>214306.7853407513</v>
+        <v>265652.3550800629</v>
       </c>
     </row>
     <row r="7">
@@ -50750,28 +50750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.5259605468179</v>
+        <v>212.0119387429233</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.3211422944779</v>
+        <v>290.0840878945475</v>
       </c>
       <c r="AC7" t="n">
-        <v>211.0532999422402</v>
+        <v>262.3988696815517</v>
       </c>
       <c r="AD7" t="n">
-        <v>170525.9605468179</v>
+        <v>212011.9387429233</v>
       </c>
       <c r="AE7" t="n">
-        <v>233321.1422944778</v>
+        <v>290084.0878945475</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.369507157091125e-06</v>
+        <v>4.978045195416497e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.513888888888891</v>
       </c>
       <c r="AH7" t="n">
-        <v>211053.2999422401</v>
+        <v>262398.8696815517</v>
       </c>
     </row>
     <row r="8">
@@ -50856,28 +50856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>168.2889380359815</v>
+        <v>209.6043240314948</v>
       </c>
       <c r="AB8" t="n">
-        <v>230.2603494046851</v>
+        <v>286.789883229908</v>
       </c>
       <c r="AC8" t="n">
-        <v>208.2846248299985</v>
+        <v>259.419059286659</v>
       </c>
       <c r="AD8" t="n">
-        <v>168288.9380359816</v>
+        <v>209604.3240314948</v>
       </c>
       <c r="AE8" t="n">
-        <v>230260.3494046851</v>
+        <v>286789.883229908</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.40595581988956e-06</v>
+        <v>5.031893750194384e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.409722222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>208284.6248299985</v>
+        <v>259419.059286659</v>
       </c>
     </row>
     <row r="9">
@@ -50962,28 +50962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>166.6537447750829</v>
+        <v>207.9691307705961</v>
       </c>
       <c r="AB9" t="n">
-        <v>228.0230058454894</v>
+        <v>284.5525396707122</v>
       </c>
       <c r="AC9" t="n">
-        <v>206.2608101999602</v>
+        <v>257.3952446566208</v>
       </c>
       <c r="AD9" t="n">
-        <v>166653.7447750829</v>
+        <v>207969.1307705961</v>
       </c>
       <c r="AE9" t="n">
-        <v>228023.0058454894</v>
+        <v>284552.5396707122</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.428500813444214e-06</v>
+        <v>5.06520129091566e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH9" t="n">
-        <v>206260.8101999602</v>
+        <v>257395.2446566208</v>
       </c>
     </row>
     <row r="10">
@@ -51068,28 +51068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.2211269140604</v>
+        <v>206.5365129095736</v>
       </c>
       <c r="AB10" t="n">
-        <v>226.0628348854</v>
+        <v>282.5923687106228</v>
       </c>
       <c r="AC10" t="n">
-        <v>204.4877152051839</v>
+        <v>255.6221496618445</v>
       </c>
       <c r="AD10" t="n">
-        <v>165221.1269140604</v>
+        <v>206536.5129095736</v>
       </c>
       <c r="AE10" t="n">
-        <v>226062.8348854</v>
+        <v>282592.3687106228</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.44301380683812e-06</v>
+        <v>5.086642508775549e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.311342592592593</v>
       </c>
       <c r="AH10" t="n">
-        <v>204487.7152051839</v>
+        <v>255622.1496618445</v>
       </c>
     </row>
     <row r="11">
@@ -51174,28 +51174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>163.3193966781835</v>
+        <v>196.5082687436189</v>
       </c>
       <c r="AB11" t="n">
-        <v>223.4608036782578</v>
+        <v>268.8712826278618</v>
       </c>
       <c r="AC11" t="n">
-        <v>202.1340182044768</v>
+        <v>243.2105847771526</v>
       </c>
       <c r="AD11" t="n">
-        <v>163319.3966781835</v>
+        <v>196508.2687436189</v>
       </c>
       <c r="AE11" t="n">
-        <v>223460.8036782578</v>
+        <v>268871.2826278618</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.469657890129984e-06</v>
+        <v>5.126005965991601e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.236111111111112</v>
       </c>
       <c r="AH11" t="n">
-        <v>202134.0182044768</v>
+        <v>243210.5847771526</v>
       </c>
     </row>
     <row r="12">
@@ -51280,28 +51280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>162.1223099220357</v>
+        <v>195.3111819874711</v>
       </c>
       <c r="AB12" t="n">
-        <v>221.8228967667567</v>
+        <v>267.2333757163608</v>
       </c>
       <c r="AC12" t="n">
-        <v>200.6524308297921</v>
+        <v>241.7289974024679</v>
       </c>
       <c r="AD12" t="n">
-        <v>162122.3099220357</v>
+        <v>195311.1819874711</v>
       </c>
       <c r="AE12" t="n">
-        <v>221822.8967667567</v>
+        <v>267233.3757163608</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.482342911073513e-06</v>
+        <v>5.144746572441657e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH12" t="n">
-        <v>200652.4308297921</v>
+        <v>241728.9974024679</v>
       </c>
     </row>
     <row r="13">
@@ -51386,28 +51386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>160.712211727512</v>
+        <v>193.9010837929474</v>
       </c>
       <c r="AB13" t="n">
-        <v>219.8935382078685</v>
+        <v>265.3040171574726</v>
       </c>
       <c r="AC13" t="n">
-        <v>198.9072075438918</v>
+        <v>239.9837741165677</v>
       </c>
       <c r="AD13" t="n">
-        <v>160712.211727512</v>
+        <v>193901.0837929474</v>
       </c>
       <c r="AE13" t="n">
-        <v>219893.5382078685</v>
+        <v>265304.0171574726</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.492646028521094e-06</v>
+        <v>5.159968200387989e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>198907.2075438919</v>
+        <v>239983.7741165677</v>
       </c>
     </row>
     <row r="14">
@@ -51492,28 +51492,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>160.0361088209088</v>
+        <v>193.2249808863442</v>
       </c>
       <c r="AB14" t="n">
-        <v>218.9684643834994</v>
+        <v>264.3789433331035</v>
       </c>
       <c r="AC14" t="n">
-        <v>198.0704214669709</v>
+        <v>239.1469880396468</v>
       </c>
       <c r="AD14" t="n">
-        <v>160036.1088209088</v>
+        <v>193224.9808863442</v>
       </c>
       <c r="AE14" t="n">
-        <v>218968.4643834994</v>
+        <v>264378.9433331035</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.493587711298561e-06</v>
+        <v>5.1613594244476e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.17824074074074</v>
       </c>
       <c r="AH14" t="n">
-        <v>198070.4214669709</v>
+        <v>239146.9880396468</v>
       </c>
     </row>
     <row r="15">
@@ -51598,28 +51598,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>158.7720196640381</v>
+        <v>191.9608917294735</v>
       </c>
       <c r="AB15" t="n">
-        <v>217.2388818313921</v>
+        <v>262.6493607809962</v>
       </c>
       <c r="AC15" t="n">
-        <v>196.5059078461519</v>
+        <v>237.5824744188277</v>
       </c>
       <c r="AD15" t="n">
-        <v>158772.0196640381</v>
+        <v>191960.8917294735</v>
       </c>
       <c r="AE15" t="n">
-        <v>217238.8818313921</v>
+        <v>262649.3607809962</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.508100704692467e-06</v>
+        <v>5.182800642307488e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.137731481481481</v>
       </c>
       <c r="AH15" t="n">
-        <v>196505.9078461519</v>
+        <v>237582.4744188277</v>
       </c>
     </row>
     <row r="16">
@@ -51704,28 +51704,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>158.3319333749772</v>
+        <v>191.5208054404126</v>
       </c>
       <c r="AB16" t="n">
-        <v>216.6367363554624</v>
+        <v>262.0472153050666</v>
       </c>
       <c r="AC16" t="n">
-        <v>195.9612302893283</v>
+        <v>237.0377968620041</v>
       </c>
       <c r="AD16" t="n">
-        <v>158331.9333749772</v>
+        <v>191520.8054404126</v>
       </c>
       <c r="AE16" t="n">
-        <v>216636.7363554624</v>
+        <v>262047.2153050666</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.503835435641586e-06</v>
+        <v>5.176499215684544e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.149305555555555</v>
       </c>
       <c r="AH16" t="n">
-        <v>195961.2302893283</v>
+        <v>237037.7968620041</v>
       </c>
     </row>
     <row r="17">
@@ -51810,28 +51810,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>158.714441588273</v>
+        <v>191.9033136537084</v>
       </c>
       <c r="AB17" t="n">
-        <v>217.1601009679649</v>
+        <v>262.5705799175689</v>
       </c>
       <c r="AC17" t="n">
-        <v>196.4346457177605</v>
+        <v>237.5112122904363</v>
       </c>
       <c r="AD17" t="n">
-        <v>158714.441588273</v>
+        <v>191903.3136537084</v>
       </c>
       <c r="AE17" t="n">
-        <v>217160.1009679649</v>
+        <v>262570.5799175689</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.503281504596017e-06</v>
+        <v>5.175680848590655e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.149305555555555</v>
       </c>
       <c r="AH17" t="n">
-        <v>196434.6457177605</v>
+        <v>237511.2122904363</v>
       </c>
     </row>
   </sheetData>
@@ -52107,28 +52107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>367.6348187545048</v>
+        <v>435.866681480158</v>
       </c>
       <c r="AB2" t="n">
-        <v>503.0141779234452</v>
+        <v>596.3720226820196</v>
       </c>
       <c r="AC2" t="n">
-        <v>455.0072107672635</v>
+        <v>539.4551138506375</v>
       </c>
       <c r="AD2" t="n">
-        <v>367634.8187545048</v>
+        <v>435866.681480158</v>
       </c>
       <c r="AE2" t="n">
-        <v>503014.1779234452</v>
+        <v>596372.0226820196</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.950932925577992e-06</v>
+        <v>2.833084346094436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>455007.2107672635</v>
+        <v>539455.1138506376</v>
       </c>
     </row>
     <row r="3">
@@ -52213,28 +52213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>244.4796954100569</v>
+        <v>295.6535924542998</v>
       </c>
       <c r="AB3" t="n">
-        <v>334.5079049428295</v>
+        <v>404.5262885119221</v>
       </c>
       <c r="AC3" t="n">
-        <v>302.5829399799786</v>
+        <v>365.9188672925553</v>
       </c>
       <c r="AD3" t="n">
-        <v>244479.6954100569</v>
+        <v>295653.5924542998</v>
       </c>
       <c r="AE3" t="n">
-        <v>334507.9049428295</v>
+        <v>404526.2885119221</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.623609516678538e-06</v>
+        <v>3.809924449229462e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.77662037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>302582.9399799786</v>
+        <v>365918.8672925553</v>
       </c>
     </row>
     <row r="4">
@@ -52319,28 +52319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.4952563432344</v>
+        <v>267.5838125329054</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.2183608253033</v>
+        <v>366.1199772721785</v>
       </c>
       <c r="AC4" t="n">
-        <v>267.9476962133043</v>
+        <v>331.1780004939364</v>
       </c>
       <c r="AD4" t="n">
-        <v>216495.2563432344</v>
+        <v>267583.8125329054</v>
       </c>
       <c r="AE4" t="n">
-        <v>296218.3608253032</v>
+        <v>366119.9772721785</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.87299414083516e-06</v>
+        <v>4.172073073403946e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.75231481481481</v>
       </c>
       <c r="AH4" t="n">
-        <v>267947.6962133042</v>
+        <v>331178.0004939364</v>
       </c>
     </row>
     <row r="5">
@@ -52425,28 +52425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>208.0660357093479</v>
+        <v>250.62569856686</v>
       </c>
       <c r="AB5" t="n">
-        <v>284.6851292830565</v>
+        <v>342.9171376044862</v>
       </c>
       <c r="AC5" t="n">
-        <v>257.5151801024538</v>
+        <v>310.1896072788417</v>
       </c>
       <c r="AD5" t="n">
-        <v>208066.0357093479</v>
+        <v>250625.69856686</v>
       </c>
       <c r="AE5" t="n">
-        <v>284685.1292830565</v>
+        <v>342917.1376044863</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.998647266962019e-06</v>
+        <v>4.354542649882272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.30092592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>257515.1801024537</v>
+        <v>310189.6072788417</v>
       </c>
     </row>
     <row r="6">
@@ -52531,28 +52531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>202.354667324057</v>
+        <v>244.914330181569</v>
       </c>
       <c r="AB6" t="n">
-        <v>276.8705830905152</v>
+        <v>335.102591411945</v>
       </c>
       <c r="AC6" t="n">
-        <v>250.4464432307417</v>
+        <v>303.1208704071296</v>
       </c>
       <c r="AD6" t="n">
-        <v>202354.667324057</v>
+        <v>244914.330181569</v>
       </c>
       <c r="AE6" t="n">
-        <v>276870.5830905152</v>
+        <v>335102.5914119449</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.089177301758602e-06</v>
+        <v>4.486007561397666e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>250446.4432307417</v>
+        <v>303120.8704071296</v>
       </c>
     </row>
     <row r="7">
@@ -52637,28 +52637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.576725825298</v>
+        <v>233.2216400288307</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.7554839258144</v>
+        <v>319.1041368998933</v>
       </c>
       <c r="AC7" t="n">
-        <v>235.8693465126309</v>
+        <v>288.6492859397312</v>
       </c>
       <c r="AD7" t="n">
-        <v>190576.7258252981</v>
+        <v>233221.6400288307</v>
       </c>
       <c r="AE7" t="n">
-        <v>260755.4839258143</v>
+        <v>319104.1368998933</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.137431518419044e-06</v>
+        <v>4.5560808397054e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.843750000000002</v>
       </c>
       <c r="AH7" t="n">
-        <v>235869.3465126309</v>
+        <v>288649.2859397312</v>
       </c>
     </row>
     <row r="8">
@@ -52743,28 +52743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>187.6433388508985</v>
+        <v>230.2882530544311</v>
       </c>
       <c r="AB8" t="n">
-        <v>256.741894455543</v>
+        <v>315.090547429622</v>
       </c>
       <c r="AC8" t="n">
-        <v>232.2388083882929</v>
+        <v>285.0187478153931</v>
       </c>
       <c r="AD8" t="n">
-        <v>187643.3388508985</v>
+        <v>230288.2530544311</v>
       </c>
       <c r="AE8" t="n">
-        <v>256741.894455543</v>
+        <v>315090.547429622</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.184885056705696e-06</v>
+        <v>4.624991397687232e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.699074074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>232238.8083882928</v>
+        <v>285018.7478153931</v>
       </c>
     </row>
     <row r="9">
@@ -52849,28 +52849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>185.6430720809306</v>
+        <v>228.2879862844632</v>
       </c>
       <c r="AB9" t="n">
-        <v>254.0050412153325</v>
+        <v>312.3536941894114</v>
       </c>
       <c r="AC9" t="n">
-        <v>229.7631565801294</v>
+        <v>282.5430960072296</v>
       </c>
       <c r="AD9" t="n">
-        <v>185643.0720809306</v>
+        <v>228287.9862844632</v>
       </c>
       <c r="AE9" t="n">
-        <v>254005.0412153325</v>
+        <v>312353.6941894114</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.214296642302935e-06</v>
+        <v>4.667701990992057e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.612268518518519</v>
       </c>
       <c r="AH9" t="n">
-        <v>229763.1565801294</v>
+        <v>282543.0960072296</v>
       </c>
     </row>
     <row r="10">
@@ -52955,28 +52955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>184.1252888399238</v>
+        <v>226.7702030434564</v>
       </c>
       <c r="AB10" t="n">
-        <v>251.9283432251172</v>
+        <v>310.2769961991962</v>
       </c>
       <c r="AC10" t="n">
-        <v>227.8846557314357</v>
+        <v>280.664595158536</v>
       </c>
       <c r="AD10" t="n">
-        <v>184125.2888399238</v>
+        <v>226770.2030434564</v>
       </c>
       <c r="AE10" t="n">
-        <v>251928.3432251172</v>
+        <v>310276.9961991961</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.23554130848751e-06</v>
+        <v>4.698552836972674e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.548611111111112</v>
       </c>
       <c r="AH10" t="n">
-        <v>227884.6557314357</v>
+        <v>280664.595158536</v>
       </c>
     </row>
     <row r="11">
@@ -53061,28 +53061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>182.8851424731954</v>
+        <v>225.530056676728</v>
       </c>
       <c r="AB11" t="n">
-        <v>250.2315202547638</v>
+        <v>308.5801732288428</v>
       </c>
       <c r="AC11" t="n">
-        <v>226.3497751638664</v>
+        <v>279.1297145909666</v>
       </c>
       <c r="AD11" t="n">
-        <v>182885.1424731954</v>
+        <v>225530.056676728</v>
       </c>
       <c r="AE11" t="n">
-        <v>250231.5202547638</v>
+        <v>308580.1732288428</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.247231212744851e-06</v>
+        <v>4.715528553730852e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.513888888888891</v>
       </c>
       <c r="AH11" t="n">
-        <v>226349.7751638663</v>
+        <v>279129.7145909666</v>
       </c>
     </row>
     <row r="12">
@@ -53167,28 +53167,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>180.9803596140156</v>
+        <v>223.454681616956</v>
       </c>
       <c r="AB12" t="n">
-        <v>247.6253123137464</v>
+        <v>305.7405535129785</v>
       </c>
       <c r="AC12" t="n">
-        <v>223.9923000509029</v>
+        <v>276.5611041953522</v>
       </c>
       <c r="AD12" t="n">
-        <v>180980.3596140156</v>
+        <v>223454.681616956</v>
       </c>
       <c r="AE12" t="n">
-        <v>247625.3123137464</v>
+        <v>305740.5535129785</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.277923883740155e-06</v>
+        <v>4.760099499557121e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.421296296296298</v>
       </c>
       <c r="AH12" t="n">
-        <v>223992.3000509029</v>
+        <v>276561.1041953522</v>
       </c>
     </row>
     <row r="13">
@@ -53273,28 +53273,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>179.8469900778808</v>
+        <v>222.3213120808212</v>
       </c>
       <c r="AB13" t="n">
-        <v>246.0745861136725</v>
+        <v>304.1898273129046</v>
       </c>
       <c r="AC13" t="n">
-        <v>222.5895729829057</v>
+        <v>275.1583771273549</v>
       </c>
       <c r="AD13" t="n">
-        <v>179846.9900778808</v>
+        <v>222321.3120808212</v>
       </c>
       <c r="AE13" t="n">
-        <v>246074.5861136725</v>
+        <v>304189.8273129046</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.28929351664798e-06</v>
+        <v>4.77661012818494e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.392361111111112</v>
       </c>
       <c r="AH13" t="n">
-        <v>222589.5729829057</v>
+        <v>275158.3771273549</v>
       </c>
     </row>
     <row r="14">
@@ -53379,28 +53379,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>178.7733010837078</v>
+        <v>221.2476230866483</v>
       </c>
       <c r="AB14" t="n">
-        <v>244.6055174640304</v>
+        <v>302.7207586632626</v>
       </c>
       <c r="AC14" t="n">
-        <v>221.2607101833343</v>
+        <v>273.8295143277835</v>
       </c>
       <c r="AD14" t="n">
-        <v>178773.3010837078</v>
+        <v>221247.6230866483</v>
       </c>
       <c r="AE14" t="n">
-        <v>244605.5174640304</v>
+        <v>302720.7586632626</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.300342878206289e-06</v>
+        <v>4.792655668682396e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH14" t="n">
-        <v>221260.7101833342</v>
+        <v>273829.5143277835</v>
       </c>
     </row>
     <row r="15">
@@ -53485,28 +53485,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>178.1708956357004</v>
+        <v>220.6452176386408</v>
       </c>
       <c r="AB15" t="n">
-        <v>243.7812797538143</v>
+        <v>301.8965209530464</v>
       </c>
       <c r="AC15" t="n">
-        <v>220.515136563356</v>
+        <v>273.0839407078052</v>
       </c>
       <c r="AD15" t="n">
-        <v>178170.8956357004</v>
+        <v>220645.2176386408</v>
       </c>
       <c r="AE15" t="n">
-        <v>243781.2797538143</v>
+        <v>301896.5209530464</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.300769906672311e-06</v>
+        <v>4.793275786189543e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.357638888888891</v>
       </c>
       <c r="AH15" t="n">
-        <v>220515.136563356</v>
+        <v>273083.9407078052</v>
       </c>
     </row>
     <row r="16">
@@ -53591,28 +53591,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>177.3159442809146</v>
+        <v>219.7902662838549</v>
       </c>
       <c r="AB16" t="n">
-        <v>242.6114975924051</v>
+        <v>300.7267387916372</v>
       </c>
       <c r="AC16" t="n">
-        <v>219.4569967696318</v>
+        <v>272.0258009140809</v>
       </c>
       <c r="AD16" t="n">
-        <v>177315.9442809146</v>
+        <v>219790.266283855</v>
       </c>
       <c r="AE16" t="n">
-        <v>242611.4975924051</v>
+        <v>300726.7387916372</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.313260489303443e-06</v>
+        <v>4.811414223273626e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>219456.9967696317</v>
+        <v>272025.8009140809</v>
       </c>
     </row>
     <row r="17">
@@ -53697,28 +53697,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>176.2477698445898</v>
+        <v>218.7220918475302</v>
       </c>
       <c r="AB17" t="n">
-        <v>241.1499742040961</v>
+        <v>299.2652154033282</v>
       </c>
       <c r="AC17" t="n">
-        <v>218.1349591222415</v>
+        <v>270.7037632666907</v>
       </c>
       <c r="AD17" t="n">
-        <v>176247.7698445898</v>
+        <v>218722.0918475302</v>
       </c>
       <c r="AE17" t="n">
-        <v>241149.9742040961</v>
+        <v>299265.2154033282</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.314007789118981e-06</v>
+        <v>4.812499428911135e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>218134.9591222415</v>
+        <v>270703.7632666907</v>
       </c>
     </row>
     <row r="18">
@@ -53803,28 +53803,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>175.3539317498033</v>
+        <v>217.8282537527437</v>
       </c>
       <c r="AB18" t="n">
-        <v>239.9269854894561</v>
+        <v>298.0422266886883</v>
       </c>
       <c r="AC18" t="n">
-        <v>217.0286907340509</v>
+        <v>269.5974948785001</v>
       </c>
       <c r="AD18" t="n">
-        <v>175353.9317498033</v>
+        <v>217828.2537527437</v>
       </c>
       <c r="AE18" t="n">
-        <v>239926.9854894561</v>
+        <v>298042.2266886883</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.329807842361781e-06</v>
+        <v>4.835443776675614e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.276620370370372</v>
       </c>
       <c r="AH18" t="n">
-        <v>217028.6907340509</v>
+        <v>269597.4948785001</v>
       </c>
     </row>
     <row r="19">
@@ -53909,28 +53909,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>174.3885857511455</v>
+        <v>216.862907754086</v>
       </c>
       <c r="AB19" t="n">
-        <v>238.6061565060335</v>
+        <v>296.7213977052656</v>
       </c>
       <c r="AC19" t="n">
-        <v>215.8339198150106</v>
+        <v>268.4027239594598</v>
       </c>
       <c r="AD19" t="n">
-        <v>174388.5857511455</v>
+        <v>216862.907754086</v>
       </c>
       <c r="AE19" t="n">
-        <v>238606.1565060335</v>
+        <v>296721.3977052656</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.326124721842344e-06</v>
+        <v>4.830095263176462e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH19" t="n">
-        <v>215833.9198150106</v>
+        <v>268402.7239594598</v>
       </c>
     </row>
     <row r="20">
@@ -54015,28 +54015,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>173.7949173171443</v>
+        <v>216.2692393200847</v>
       </c>
       <c r="AB20" t="n">
-        <v>237.7938731638305</v>
+        <v>295.9091143630627</v>
       </c>
       <c r="AC20" t="n">
-        <v>215.0991596549404</v>
+        <v>267.6679637993896</v>
       </c>
       <c r="AD20" t="n">
-        <v>173794.9173171443</v>
+        <v>216269.2393200847</v>
       </c>
       <c r="AE20" t="n">
-        <v>237793.8731638305</v>
+        <v>295909.1143630627</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.339629497080277e-06</v>
+        <v>4.84970647934002e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.247685185185185</v>
       </c>
       <c r="AH20" t="n">
-        <v>215099.1596549404</v>
+        <v>267667.9637993896</v>
       </c>
     </row>
     <row r="21">
@@ -54121,28 +54121,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>173.0357851459639</v>
+        <v>207.151806017341</v>
       </c>
       <c r="AB21" t="n">
-        <v>236.7551950366743</v>
+        <v>283.4342398854859</v>
       </c>
       <c r="AC21" t="n">
-        <v>214.1596115104458</v>
+        <v>256.3836738333525</v>
       </c>
       <c r="AD21" t="n">
-        <v>173035.7851459639</v>
+        <v>207151.806017341</v>
       </c>
       <c r="AE21" t="n">
-        <v>236755.1950366743</v>
+        <v>283434.2398854858</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.343686267507483e-06</v>
+        <v>4.855597595657927e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.236111111111112</v>
       </c>
       <c r="AH21" t="n">
-        <v>214159.6115104458</v>
+        <v>256383.6738333525</v>
       </c>
     </row>
     <row r="22">
@@ -54227,28 +54227,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>172.1247428100582</v>
+        <v>214.5990648129987</v>
       </c>
       <c r="AB22" t="n">
-        <v>235.5086667203376</v>
+        <v>293.6239079195698</v>
       </c>
       <c r="AC22" t="n">
-        <v>213.0320501071063</v>
+        <v>265.6008542515555</v>
       </c>
       <c r="AD22" t="n">
-        <v>172124.7428100582</v>
+        <v>214599.0648129987</v>
       </c>
       <c r="AE22" t="n">
-        <v>235508.6667203376</v>
+        <v>293623.9079195698</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.342191667876408e-06</v>
+        <v>4.853427184382909e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.241898148148149</v>
       </c>
       <c r="AH22" t="n">
-        <v>213032.0501071063</v>
+        <v>265600.8542515555</v>
       </c>
     </row>
     <row r="23">
@@ -54333,28 +54333,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>171.3329057827345</v>
+        <v>205.4489266541116</v>
       </c>
       <c r="AB23" t="n">
-        <v>234.4252403661696</v>
+        <v>281.1042852149812</v>
       </c>
       <c r="AC23" t="n">
-        <v>212.0520244435814</v>
+        <v>254.2760867664881</v>
       </c>
       <c r="AD23" t="n">
-        <v>171332.9057827345</v>
+        <v>205448.9266541116</v>
       </c>
       <c r="AE23" t="n">
-        <v>234425.2403661696</v>
+        <v>281104.2852149812</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.35548292888133e-06</v>
+        <v>4.872728341792893e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH23" t="n">
-        <v>212052.0244435814</v>
+        <v>254276.0867664881</v>
       </c>
     </row>
     <row r="24">
@@ -54439,28 +54439,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>171.7645172463035</v>
+        <v>205.8805381176806</v>
       </c>
       <c r="AB24" t="n">
-        <v>235.0157902119783</v>
+        <v>281.6948350607898</v>
       </c>
       <c r="AC24" t="n">
-        <v>212.5862130409482</v>
+        <v>254.8102753638549</v>
       </c>
       <c r="AD24" t="n">
-        <v>171764.5172463035</v>
+        <v>205880.5381176806</v>
       </c>
       <c r="AE24" t="n">
-        <v>235015.7902119783</v>
+        <v>281694.8350607898</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.354575493391034e-06</v>
+        <v>4.871410592090204e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.207175925925926</v>
       </c>
       <c r="AH24" t="n">
-        <v>212586.2130409482</v>
+        <v>254810.2753638549</v>
       </c>
     </row>
   </sheetData>
@@ -54736,28 +54736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.0474615127809</v>
+        <v>138.6257813640859</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.9940829748792</v>
+        <v>189.6739098001051</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.537805582233</v>
+        <v>171.5716980578409</v>
       </c>
       <c r="AD2" t="n">
-        <v>103047.4615127809</v>
+        <v>138625.7813640859</v>
       </c>
       <c r="AE2" t="n">
-        <v>140994.0829748792</v>
+        <v>189673.9098001051</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.127988060112732e-06</v>
+        <v>6.881110154634746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.618055555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>127537.805582233</v>
+        <v>171571.6980578409</v>
       </c>
     </row>
   </sheetData>
@@ -55033,28 +55033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>203.5342092815146</v>
+        <v>251.1894551364093</v>
       </c>
       <c r="AB2" t="n">
-        <v>278.4844844344265</v>
+        <v>343.6884942141277</v>
       </c>
       <c r="AC2" t="n">
-        <v>251.9063160955153</v>
+        <v>310.8873466962651</v>
       </c>
       <c r="AD2" t="n">
-        <v>203534.2092815147</v>
+        <v>251189.4551364093</v>
       </c>
       <c r="AE2" t="n">
-        <v>278484.4844344265</v>
+        <v>343688.4942141277</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864323245278122e-06</v>
+        <v>4.35923251374057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>251906.3160955153</v>
+        <v>310887.346696265</v>
       </c>
     </row>
     <row r="3">
@@ -55139,28 +55139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.4134631524361</v>
+        <v>208.0409166854944</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.4307301626786</v>
+        <v>284.650760326447</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.43874468758</v>
+        <v>257.4840912708258</v>
       </c>
       <c r="AD3" t="n">
-        <v>168413.4631524361</v>
+        <v>208040.9166854944</v>
       </c>
       <c r="AE3" t="n">
-        <v>230430.7301626786</v>
+        <v>284650.760326447</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.368311981229712e-06</v>
+        <v>5.126256308258517e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.09837962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>208438.74468758</v>
+        <v>257484.0912708259</v>
       </c>
     </row>
     <row r="4">
@@ -55245,28 +55245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.5903085416325</v>
+        <v>192.3030134207114</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.7807919558738</v>
+        <v>263.1174667722913</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.8550461973466</v>
+        <v>238.0059050313047</v>
       </c>
       <c r="AD4" t="n">
-        <v>152590.3085416325</v>
+        <v>192303.0134207114</v>
       </c>
       <c r="AE4" t="n">
-        <v>208780.7919558737</v>
+        <v>263117.4667722913</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.547673888775298e-06</v>
+        <v>5.399228383036805e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.58912037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>188855.0461973466</v>
+        <v>238005.9050313047</v>
       </c>
     </row>
     <row r="5">
@@ -55351,28 +55351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.3765509138051</v>
+        <v>187.9186635922918</v>
       </c>
       <c r="AB5" t="n">
-        <v>203.0153428716166</v>
+        <v>257.1186059131874</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.6398434818305</v>
+        <v>232.5795670331376</v>
       </c>
       <c r="AD5" t="n">
-        <v>148376.5509138051</v>
+        <v>187918.6635922918</v>
       </c>
       <c r="AE5" t="n">
-        <v>203015.3428716166</v>
+        <v>257118.6059131874</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.637266660685974e-06</v>
+        <v>5.535580215866077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.351851851851853</v>
       </c>
       <c r="AH5" t="n">
-        <v>183639.8434818305</v>
+        <v>232579.5670331376</v>
       </c>
     </row>
     <row r="6">
@@ -55457,28 +55457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>145.4576661531103</v>
+        <v>177.2279195649244</v>
       </c>
       <c r="AB6" t="n">
-        <v>199.0215959699286</v>
+        <v>242.4910582926111</v>
       </c>
       <c r="AC6" t="n">
-        <v>180.0272541791794</v>
+        <v>219.3480520275724</v>
       </c>
       <c r="AD6" t="n">
-        <v>145457.6661531103</v>
+        <v>177227.9195649244</v>
       </c>
       <c r="AE6" t="n">
-        <v>199021.5959699286</v>
+        <v>242491.0582926111</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.690587293312603e-06</v>
+        <v>5.616729239734941e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.21875</v>
       </c>
       <c r="AH6" t="n">
-        <v>180027.2541791794</v>
+        <v>219348.0520275724</v>
       </c>
     </row>
     <row r="7">
@@ -55563,28 +55563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.2859811787361</v>
+        <v>175.0562345905503</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.0502007800121</v>
+        <v>239.5196631026946</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.3394447758082</v>
+        <v>216.6602426242013</v>
       </c>
       <c r="AD7" t="n">
-        <v>143285.9811787361</v>
+        <v>175056.2345905503</v>
       </c>
       <c r="AE7" t="n">
-        <v>196050.2007800121</v>
+        <v>239519.6631026946</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.724743067905846e-06</v>
+        <v>5.668711139258437e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>177339.4447758082</v>
+        <v>216660.2426242013</v>
       </c>
     </row>
     <row r="8">
@@ -55669,28 +55669,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>141.2975286547613</v>
+        <v>173.0677820665754</v>
       </c>
       <c r="AB8" t="n">
-        <v>193.3295123123769</v>
+        <v>236.7989746350594</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.8784149970131</v>
+        <v>214.1992128454061</v>
       </c>
       <c r="AD8" t="n">
-        <v>141297.5286547613</v>
+        <v>173067.7820665754</v>
       </c>
       <c r="AE8" t="n">
-        <v>193329.5123123769</v>
+        <v>236798.9746350594</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.747905503688527e-06</v>
+        <v>5.703962203651307e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.079861111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>174878.4149970131</v>
+        <v>214199.2128454061</v>
       </c>
     </row>
     <row r="9">
@@ -55775,28 +55775,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>140.5642761247937</v>
+        <v>172.3345295366078</v>
       </c>
       <c r="AB9" t="n">
-        <v>192.3262438520573</v>
+        <v>235.7957061747398</v>
       </c>
       <c r="AC9" t="n">
-        <v>173.9708970704498</v>
+        <v>213.2916949188429</v>
       </c>
       <c r="AD9" t="n">
-        <v>140564.2761247937</v>
+        <v>172334.5295366078</v>
       </c>
       <c r="AE9" t="n">
-        <v>192326.2438520573</v>
+        <v>235795.7061747398</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.758134599694076e-06</v>
+        <v>5.71952993259638e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.050925925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>173970.8970704498</v>
+        <v>213291.6949188429</v>
       </c>
     </row>
   </sheetData>
@@ -56072,28 +56072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>257.4957648324161</v>
+        <v>306.4931812591575</v>
       </c>
       <c r="AB2" t="n">
-        <v>352.3170653549483</v>
+        <v>419.3574921236362</v>
       </c>
       <c r="AC2" t="n">
-        <v>318.6924191176842</v>
+        <v>379.3346016472923</v>
       </c>
       <c r="AD2" t="n">
-        <v>257495.7648324161</v>
+        <v>306493.1812591575</v>
       </c>
       <c r="AE2" t="n">
-        <v>352317.0653549483</v>
+        <v>419357.4921236362</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509198054687664e-06</v>
+        <v>3.746008609260787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>318692.4191176841</v>
+        <v>379334.6016472923</v>
       </c>
     </row>
     <row r="3">
@@ -56178,28 +56178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.6155729892739</v>
+        <v>239.5275590528887</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.808636329382</v>
+        <v>327.7321735061182</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.9174261254019</v>
+        <v>296.4538748417862</v>
       </c>
       <c r="AD3" t="n">
-        <v>190615.5729892738</v>
+        <v>239527.5590528887</v>
       </c>
       <c r="AE3" t="n">
-        <v>260808.6363293819</v>
+        <v>327732.1735061182</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.080916216521104e-06</v>
+        <v>4.599532767028161e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.63078703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>235917.4261254019</v>
+        <v>296453.8748417862</v>
       </c>
     </row>
     <row r="4">
@@ -56284,28 +56284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.3488909073683</v>
+        <v>221.0947453265031</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.7613089708789</v>
+        <v>302.5115845673412</v>
       </c>
       <c r="AC4" t="n">
-        <v>223.2107559744421</v>
+        <v>273.6403035139991</v>
       </c>
       <c r="AD4" t="n">
-        <v>180348.8909073683</v>
+        <v>221094.7453265031</v>
       </c>
       <c r="AE4" t="n">
-        <v>246761.3089708789</v>
+        <v>302511.5845673413</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.273526542698631e-06</v>
+        <v>4.887082782757532e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.00578703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>223210.7559744421</v>
+        <v>273640.3035139991</v>
       </c>
     </row>
     <row r="5">
@@ -56390,28 +56390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.1877989938863</v>
+        <v>207.0189047590416</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.3854782715793</v>
+        <v>283.252398520691</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.6841273629284</v>
+        <v>256.2191871531977</v>
       </c>
       <c r="AD5" t="n">
-        <v>166187.7989938863</v>
+        <v>207018.9047590416</v>
       </c>
       <c r="AE5" t="n">
-        <v>227385.4782715793</v>
+        <v>283252.398520691</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.388538056889855e-06</v>
+        <v>5.058784702229198e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.664351851851851</v>
       </c>
       <c r="AH5" t="n">
-        <v>205684.1273629284</v>
+        <v>256219.1871531977</v>
       </c>
     </row>
     <row r="6">
@@ -56496,28 +56496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.8193942572247</v>
+        <v>203.4799078217879</v>
       </c>
       <c r="AB6" t="n">
-        <v>222.7766783073522</v>
+        <v>278.410186781617</v>
       </c>
       <c r="AC6" t="n">
-        <v>201.5151847987943</v>
+        <v>251.8391093064125</v>
       </c>
       <c r="AD6" t="n">
-        <v>162819.3942572247</v>
+        <v>203479.9078217879</v>
       </c>
       <c r="AE6" t="n">
-        <v>222776.6783073522</v>
+        <v>278410.186781617</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.453175433467796e-06</v>
+        <v>5.155282532955892e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.484953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>201515.1847987943</v>
+        <v>251839.1093064125</v>
       </c>
     </row>
     <row r="7">
@@ -56602,28 +56602,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.8367942821275</v>
+        <v>200.4973078466906</v>
       </c>
       <c r="AB7" t="n">
-        <v>218.695753438402</v>
+        <v>274.3292619126668</v>
       </c>
       <c r="AC7" t="n">
-        <v>197.8237376717214</v>
+        <v>248.1476621793396</v>
       </c>
       <c r="AD7" t="n">
-        <v>159836.7942821275</v>
+        <v>200497.3078466906</v>
       </c>
       <c r="AE7" t="n">
-        <v>218695.753438402</v>
+        <v>274329.2619126668</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.504568373864268e-06</v>
+        <v>5.232007603270987e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.346064814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>197823.7376717214</v>
+        <v>248147.6621793396</v>
       </c>
     </row>
     <row r="8">
@@ -56708,28 +56708,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>158.2952479091045</v>
+        <v>198.9557614736677</v>
       </c>
       <c r="AB8" t="n">
-        <v>216.5865416826068</v>
+        <v>272.2200501568717</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.9158261256013</v>
+        <v>246.2397506332195</v>
       </c>
       <c r="AD8" t="n">
-        <v>158295.2479091045</v>
+        <v>198955.7614736677</v>
       </c>
       <c r="AE8" t="n">
-        <v>216586.5416826069</v>
+        <v>272220.0501568717</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.526076432620502e-06</v>
+        <v>5.264117214195807e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.288194444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>195915.8261256013</v>
+        <v>246239.7506332195</v>
       </c>
     </row>
     <row r="9">
@@ -56814,28 +56814,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>156.6232568159441</v>
+        <v>189.2882309366195</v>
       </c>
       <c r="AB9" t="n">
-        <v>214.2988497059049</v>
+        <v>258.9925083747426</v>
       </c>
       <c r="AC9" t="n">
-        <v>193.8464682603592</v>
+        <v>234.2746268738012</v>
       </c>
       <c r="AD9" t="n">
-        <v>156623.2568159441</v>
+        <v>189288.2309366195</v>
       </c>
       <c r="AE9" t="n">
-        <v>214298.8497059049</v>
+        <v>258992.5083747426</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.549225895860762e-06</v>
+        <v>5.298677295428047e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.230324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>193846.4682603592</v>
+        <v>234274.6268738012</v>
       </c>
     </row>
     <row r="10">
@@ -56920,28 +56920,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>154.5152872936392</v>
+        <v>187.1802614143146</v>
       </c>
       <c r="AB10" t="n">
-        <v>211.4146328084369</v>
+        <v>256.1082914772746</v>
       </c>
       <c r="AC10" t="n">
-        <v>191.2375169755608</v>
+        <v>231.6656755890027</v>
       </c>
       <c r="AD10" t="n">
-        <v>154515.2872936392</v>
+        <v>187180.2614143146</v>
       </c>
       <c r="AE10" t="n">
-        <v>211414.6328084369</v>
+        <v>256108.2914772746</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.576054369151432e-06</v>
+        <v>5.338729810107954e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.16087962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>191237.5169755608</v>
+        <v>231665.6755890027</v>
       </c>
     </row>
     <row r="11">
@@ -57026,28 +57026,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>153.3417346511115</v>
+        <v>186.0067087717869</v>
       </c>
       <c r="AB11" t="n">
-        <v>209.8089263094426</v>
+        <v>254.5025849782803</v>
       </c>
       <c r="AC11" t="n">
-        <v>189.7850568512068</v>
+        <v>230.2132154646488</v>
       </c>
       <c r="AD11" t="n">
-        <v>153341.7346511115</v>
+        <v>186006.7087717869</v>
       </c>
       <c r="AE11" t="n">
-        <v>209808.9263094426</v>
+        <v>254502.5849782803</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.586242396983332e-06</v>
+        <v>5.353939625809184e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.131944444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>189785.0568512068</v>
+        <v>230213.2154646488</v>
       </c>
     </row>
     <row r="12">
@@ -57132,28 +57132,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>151.846915991031</v>
+        <v>184.5118901117063</v>
       </c>
       <c r="AB12" t="n">
-        <v>207.7636494719764</v>
+        <v>252.4573081408141</v>
       </c>
       <c r="AC12" t="n">
-        <v>187.9349783645437</v>
+        <v>228.3631369779857</v>
       </c>
       <c r="AD12" t="n">
-        <v>151846.915991031</v>
+        <v>184511.8901117063</v>
       </c>
       <c r="AE12" t="n">
-        <v>207763.6494719764</v>
+        <v>252457.3081408142</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.599996234556397e-06</v>
+        <v>5.374472877005845e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.097222222222223</v>
       </c>
       <c r="AH12" t="n">
-        <v>187934.9783645437</v>
+        <v>228363.1369779857</v>
       </c>
     </row>
     <row r="13">
@@ -57238,28 +57238,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>151.65153369397</v>
+        <v>184.3165078146453</v>
       </c>
       <c r="AB13" t="n">
-        <v>207.4963187934792</v>
+        <v>252.1899774623169</v>
       </c>
       <c r="AC13" t="n">
-        <v>187.6931613508011</v>
+        <v>228.1213199642431</v>
       </c>
       <c r="AD13" t="n">
-        <v>151651.53369397</v>
+        <v>184316.5078146454</v>
       </c>
       <c r="AE13" t="n">
-        <v>207496.3187934792</v>
+        <v>252189.9774623169</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.597336027289178e-06</v>
+        <v>5.370501425128301e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.10300925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>187693.1613508012</v>
+        <v>228121.3199642431</v>
       </c>
     </row>
     <row r="14">
@@ -57344,28 +57344,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>152.0613505000726</v>
+        <v>184.7263246207479</v>
       </c>
       <c r="AB14" t="n">
-        <v>208.0570482274299</v>
+        <v>252.7507068962676</v>
       </c>
       <c r="AC14" t="n">
-        <v>188.2003755545645</v>
+        <v>228.6285341680064</v>
       </c>
       <c r="AD14" t="n">
-        <v>152061.3505000726</v>
+        <v>184726.3246207479</v>
       </c>
       <c r="AE14" t="n">
-        <v>208057.0482274299</v>
+        <v>252750.7068962676</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.596487024969853e-06</v>
+        <v>5.369233940486532e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.108796296296296</v>
       </c>
       <c r="AH14" t="n">
-        <v>188200.3755545645</v>
+        <v>228628.5341680064</v>
       </c>
     </row>
   </sheetData>
